--- a/src/analysis_examples/er4000/results_er4000/animal_02/cosinor_per_day_fixed_period_animal_02_act.xlsx
+++ b/src/analysis_examples/er4000/results_er4000/animal_02/cosinor_per_day_fixed_period_animal_02_act.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,76 +574,76 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.14000000000033</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002957907277148841</v>
+        <v>0.002134769594265506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002957907277148841</v>
+        <v>0.002134769594265506</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>343.1739676965636</v>
+        <v>578.5512197507826</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[136.8276170652622, 549.520318327865]</t>
+          <t>[178.7369479098321, 978.3654915917331]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.00235084424908294</v>
+        <v>0.006678233327309213</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00235084424908294</v>
+        <v>0.006678233327309213</v>
       </c>
       <c r="P2" t="n">
-        <v>1.553500271144501</v>
+        <v>2.031500354573581</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.735868549489501, 2.3711319927995014]</t>
+          <t>[1.3270791789938876, 2.7359215301532736]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.000729918421071396</v>
+        <v>5.944614169584028e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>0.000729918421071396</v>
+        <v>5.944614169584028e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>715.0553088367255</v>
+        <v>718.2274192145695</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[586.7966970855882, 843.3139205878629]</t>
+          <t>[509.2563457238788, 927.1984927052603]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.369895308300784e-10</v>
+        <v>4.772221473547944e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>1.369895308300784e-10</v>
+        <v>4.772221473547944e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>18.17145145145171</v>
+        <v>16.42970970970995</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.03011011011033</v>
+        <v>13.70762762762783</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.31279279279309</v>
+        <v>19.15179179179207</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -660,76 +660,76 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.14000000000033</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0004219253165692605</v>
+        <v>0.1240404715848421</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004219253165692605</v>
+        <v>0.1240404715848421</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>416.1957027384782</v>
+        <v>246.3553059989649</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[214.35006399480324, 618.0413414821531]</t>
+          <t>[-80.77509554922608, 573.4857075471559]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0003262770223027012</v>
+        <v>0.132267245131606</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0003262770223027012</v>
+        <v>0.132267245131606</v>
       </c>
       <c r="P3" t="n">
-        <v>1.578658170272348</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9497106920761933, 2.207605648468503]</t>
+          <t>[-0.9308422677303092, 5.144790371644547]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.573205762275045e-05</v>
+        <v>0.1639442547716843</v>
       </c>
       <c r="S3" t="n">
-        <v>3.573205762275045e-05</v>
+        <v>0.1639442547716843</v>
       </c>
       <c r="T3" t="n">
-        <v>751.7956965103879</v>
+        <v>996.0928004041607</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[623.8892567777916, 879.7021362429841]</t>
+          <t>[826.8592633799169, 1165.3263374284045]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.178457662680103e-11</v>
+        <v>5.046318918289217e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>5.178457662680103e-11</v>
+        <v>5.046318918289217e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>18.07479479479505</v>
+        <v>16.13805805805829</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.6583783783786</v>
+        <v>4.399079079079138</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.4912112112115</v>
+        <v>27.87703703703745</v>
       </c>
     </row>
     <row r="4">
@@ -746,76 +746,76 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.14000000000033</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.120512121410844e-05</v>
+        <v>3.709739143464841e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>1.120512121410844e-05</v>
+        <v>3.709739143464841e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>453.5738659149695</v>
+        <v>683.4922876507228</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[282.65044738565143, 624.4972844442875]</t>
+          <t>[361.02414484198835, 1005.9604304594573]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.780859534350476e-05</v>
+        <v>0.000245011788979399</v>
       </c>
       <c r="O4" t="n">
-        <v>1.780859534350476e-05</v>
+        <v>0.000245011788979399</v>
       </c>
       <c r="P4" t="n">
-        <v>1.641552918091964</v>
+        <v>2.06923720326535</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.2138686329185795, 2.0692372032653488]</t>
+          <t>[1.5660792207084269, 2.5723951858222724]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>8.537145590459261e-08</v>
+        <v>2.777701491041284e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>8.537145590459261e-08</v>
+        <v>2.777701491041284e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>761.2037843907888</v>
+        <v>688.1431629926027</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[656.9814126947512, 865.4261560868264]</t>
+          <t>[516.2087758253372, 860.0775501598682]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.451017663446692e-13</v>
+        <v>4.337787018471317e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>8.451017663446692e-13</v>
+        <v>4.337787018471317e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>17.8331531531534</v>
+        <v>16.28388388388412</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.18998998999022</v>
+        <v>14.33953953953975</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.47631631631658</v>
+        <v>18.22822822822849</v>
       </c>
     </row>
     <row r="5">
@@ -832,76 +832,76 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.14000000000033</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.549053774924541e-05</v>
+        <v>0.0009298907501299469</v>
       </c>
       <c r="I5" t="n">
-        <v>7.549053774924541e-05</v>
+        <v>0.0009298907501299469</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>444.2411706318225</v>
+        <v>485.6539532788057</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[232.7681403343729, 655.714200929272]</t>
+          <t>[176.58350570872233, 794.7244008488891]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0002690986251472349</v>
+        <v>0.003676018352804844</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0002690986251472349</v>
+        <v>0.003676018352804844</v>
       </c>
       <c r="P5" t="n">
-        <v>1.930868758062195</v>
+        <v>2.119553001521042</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.4025528763774266, 2.4591846397469643]</t>
+          <t>[1.4780265737609648, 2.7610794292811187]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.853610909208214e-07</v>
+        <v>8.619385787334011e-07</v>
       </c>
       <c r="S5" t="n">
-        <v>1.853610909208214e-07</v>
+        <v>8.619385787334011e-07</v>
       </c>
       <c r="T5" t="n">
-        <v>704.414160872014</v>
+        <v>788.3704618211193</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[586.6383176802337, 822.1900040637943]</t>
+          <t>[627.4679627033884, 949.2729609388502]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.747979704371573e-11</v>
+        <v>1.39336453486294e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>3.747979704371573e-11</v>
+        <v>1.39336453486294e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>16.72160160160183</v>
+        <v>16.08944944944968</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.69181181181202</v>
+        <v>13.61041041041061</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.75139139139165</v>
+        <v>18.56848848848876</v>
       </c>
     </row>
     <row r="6">
@@ -918,76 +918,76 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.14000000000033</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0004749104056659403</v>
+        <v>0.000579546487372018</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004749104056659403</v>
+        <v>0.000579546487372018</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>390.0585873498322</v>
+        <v>703.2912343410728</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[185.3913494865659, 594.7258252130986]</t>
+          <t>[323.9819154095717, 1082.600553272574]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0007091299806023521</v>
+        <v>0.0009164479270622472</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0007091299806023521</v>
+        <v>0.0009164479270622472</v>
       </c>
       <c r="P6" t="n">
-        <v>1.654131867655887</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.0251843894597323, 2.283079345852042]</t>
+          <t>[1.0880791372793475, 2.345974093671657]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.99618119629541e-05</v>
+        <v>1.234457912424602e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.99618119629541e-05</v>
+        <v>1.234457912424602e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>710.9470308695887</v>
+        <v>717.6192652986836</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[589.753835032009, 832.1402267071685]</t>
+          <t>[494.41713362136375, 940.8213969760034]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.36923838723169e-11</v>
+        <v>1.286190024263334e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>5.36923838723169e-11</v>
+        <v>1.286190024263334e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>17.78482482482507</v>
+        <v>17.64492492492518</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.36840840840862</v>
+        <v>15.21449449449472</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.20124124124152</v>
+        <v>20.07535535535565</v>
       </c>
     </row>
     <row r="7">
@@ -999,81 +999,81 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1_control_dl</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.14000000000033</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001715625044892088</v>
+        <v>1.164401908226864e-12</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001715625044892088</v>
+        <v>1.164401908226864e-12</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>403.2884078501178</v>
+        <v>602.1499838460139</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[162.9468975282657, 643.6299181719698]</t>
+          <t>[500.6065547590929, 703.693412932935]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.002185530255074397</v>
+        <v>4.394373753768832e-11</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002185530255074397</v>
+        <v>4.394373753768832e-11</v>
       </c>
       <c r="P7" t="n">
-        <v>1.490605523324887</v>
+        <v>2.635289933641888</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.735868549489501, 2.245342497160273]</t>
+          <t>[2.4591846397469648, 2.811395227536812]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0005028074324513465</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0005028074324513465</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>767.4535741152979</v>
+        <v>836.5609022309378</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[625.4988811092545, 909.4082671213413]</t>
+          <t>[782.3052533168639, 890.8165511450118]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.39783970457097e-10</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>2.39783970457097e-10</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>18.41309309309335</v>
+        <v>13.85265265265282</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.51339339339361</v>
+        <v>13.18390390390406</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.31279279279309</v>
+        <v>14.52140140140158</v>
       </c>
     </row>
     <row r="8">
@@ -1081,85 +1081,85 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1_control_dl</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.14000000000033</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02823753395020023</v>
+        <v>0.004511241655591469</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02823753395020023</v>
+        <v>0.004511241655591469</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>371.3579451203136</v>
+        <v>305.3010833006637</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[22.75043180701016, 719.965458433617]</t>
+          <t>[80.06973303000882, 530.5324335713185]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.03792301506577878</v>
+        <v>0.01028366837651284</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03792301506577878</v>
+        <v>0.01028366837651284</v>
       </c>
       <c r="P8" t="n">
-        <v>1.201289683354656</v>
+        <v>2.610132034514042</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.14465791998511612, 2.5472372866944273]</t>
+          <t>[1.8931319093704255, 3.3271321596576584]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.07752668974123234</v>
+        <v>1.971626883978672e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07752668974123234</v>
+        <v>1.971626883978672e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>823.0208573856132</v>
+        <v>713.583117214685</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[635.3981876189309, 1010.6435271522955]</t>
+          <t>[594.0427028329896, 833.1235315963804]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9.435911385580198e-09</v>
+        <v>3.885580746043615e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>9.435911385580198e-09</v>
+        <v>3.885580746043615e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>19.52464464464492</v>
+        <v>13.94818818818836</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.35351351351371</v>
+        <v>11.22542542542556</v>
       </c>
       <c r="Z8" t="n">
-        <v>24.69577577577612</v>
+        <v>16.67095095095116</v>
       </c>
     </row>
     <row r="9">
@@ -1167,85 +1167,85 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05720684573340551</v>
+        <v>0.003571031562908944</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05720684573340551</v>
+        <v>0.003571031562908944</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>316.8672346596721</v>
+        <v>310.9002275036393</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-17.56815149875854, 651.3026208181028]</t>
+          <t>[94.16247075268711, 527.6379842545914]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.06212297843847625</v>
+        <v>0.007090104341090697</v>
       </c>
       <c r="O9" t="n">
-        <v>0.06212297843847625</v>
+        <v>0.007090104341090697</v>
       </c>
       <c r="P9" t="n">
-        <v>1.050342288587577</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.6855527512338107, 2.7862373284089657]</t>
+          <t>[2.044079304137503, 3.6290269491918132]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.2220880422956879</v>
+        <v>2.563572027991512e-07</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2220880422956879</v>
+        <v>2.563572027991512e-07</v>
       </c>
       <c r="T9" t="n">
-        <v>796.9106098355837</v>
+        <v>762.7167245909699</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[615.5681335476756, 978.2530861234918]</t>
+          <t>[644.1145659729297, 881.3188832090101]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>9.151285507158491e-09</v>
+        <v>9.623191132845932e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>9.151285507158491e-09</v>
+        <v>9.623191132845932e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>19.87971971971997</v>
+        <v>13.08836836836853</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.28500500500517</v>
+        <v>10.07899899899912</v>
       </c>
       <c r="Z9" t="n">
-        <v>26.47443443443476</v>
+        <v>16.09773773773793</v>
       </c>
     </row>
     <row r="10">
@@ -1257,81 +1257,81 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.908502262366497e-06</v>
+        <v>1.061979679861658e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>2.908502262366497e-06</v>
+        <v>1.061979679861658e-06</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>482.5096147054276</v>
+        <v>430.7205994697412</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[298.0200614818417, 666.9991679290134]</t>
+          <t>[277.72819749803296, 583.7130014414495]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.142298949414645e-05</v>
+        <v>8.222149570746851e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>2.142298949414645e-05</v>
+        <v>8.222149570746851e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>1.930868758062195</v>
+        <v>2.735921530153273</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.528342372016657, 2.333395144107734]</t>
+          <t>[2.3459740936716567, 3.1258689666348896]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.021901535087522e-09</v>
+        <v>1.831867990631508e-12</v>
       </c>
       <c r="S10" t="n">
-        <v>2.021901535087522e-09</v>
+        <v>1.831867990631508e-12</v>
       </c>
       <c r="T10" t="n">
-        <v>781.4301686088615</v>
+        <v>726.6272897580786</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[681.0524370669251, 881.807900150798]</t>
+          <t>[642.4845251791611, 810.7700543369962]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.449151992323095e-13</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>2.449151992323095e-13</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>16.53457457457478</v>
+        <v>13.47051051051067</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00536536536555</v>
+        <v>11.98970970970985</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.063783783784</v>
+        <v>14.9513113113115</v>
       </c>
     </row>
     <row r="11">
@@ -1343,81 +1343,81 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0001448670055687051</v>
+        <v>5.768731686939255e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001448670055687051</v>
+        <v>5.768731686939255e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>448.8542877984651</v>
+        <v>423.7494827404869</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[226.56842040008587, 671.1401551968443]</t>
+          <t>[226.89192119672703, 620.6070442842469]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0004034488814947945</v>
+        <v>0.000207961049248917</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0004034488814947945</v>
+        <v>0.000207961049248917</v>
       </c>
       <c r="P11" t="n">
-        <v>2.044079304137503</v>
+        <v>2.874289975356427</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.503184472888809, 2.5849741353861964]</t>
+          <t>[2.3711319927995036, 3.37744795791335]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.093871262458634e-07</v>
+        <v>8.765277392797088e-11</v>
       </c>
       <c r="S11" t="n">
-        <v>1.093871262458634e-07</v>
+        <v>8.765277392797088e-11</v>
       </c>
       <c r="T11" t="n">
-        <v>726.5617458770794</v>
+        <v>785.832281034111</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[601.5697076784118, 851.553784075747]</t>
+          <t>[675.8291888607548, 895.8353732074672]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>6.357936399581376e-11</v>
+        <v>1.295408225132633e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>6.357936399581376e-11</v>
+        <v>1.295408225132633e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>16.10448448448468</v>
+        <v>12.94506506506522</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.04960960960978</v>
+        <v>11.03435435435449</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.15935935935958</v>
+        <v>14.85577577577595</v>
       </c>
     </row>
     <row r="12">
@@ -1429,81 +1429,81 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00134604201250943</v>
+        <v>0.01434418588778041</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00134604201250943</v>
+        <v>0.01434418588778041</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>404.6446418804754</v>
+        <v>318.7924367230401</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[170.68439781880193, 638.6048859421489]</t>
+          <t>[72.96014874142429, 564.6247247046558]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.001696420477834915</v>
+        <v>0.0135047788999898</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001696420477834915</v>
+        <v>0.0135047788999898</v>
       </c>
       <c r="P12" t="n">
-        <v>1.767342413731195</v>
+        <v>3.037816319687427</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.0629212381515014, 2.471763589310889]</t>
+          <t>[1.9686056067539641, 4.107027032620891]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.591918832168695e-05</v>
+        <v>7.273841126753666e-06</v>
       </c>
       <c r="S12" t="n">
-        <v>3.591918832168695e-05</v>
+        <v>7.273841126753666e-06</v>
       </c>
       <c r="T12" t="n">
-        <v>772.9099881650395</v>
+        <v>736.7940971513697</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[634.6765850380824, 911.1433912919966]</t>
+          <t>[591.6571314374967, 881.9310628652427]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.298938734350941e-10</v>
+        <v>7.433944571033635e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>1.298938734350941e-10</v>
+        <v>7.433944571033635e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>17.15581581581603</v>
+        <v>12.32408408408423</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.47969969969988</v>
+        <v>8.263823823823923</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.83193193193218</v>
+        <v>16.38434434434455</v>
       </c>
     </row>
     <row r="13">
@@ -1511,85 +1511,85 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001362895327311486</v>
+        <v>0.4374233890137614</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001362895327311486</v>
+        <v>0.4374233890137614</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>380.4660797152642</v>
+        <v>175.2417707680176</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[195.94840890993794, 564.9837505205905]</t>
+          <t>[-165.5014892603242, 515.9850307963594]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.000326278886513709</v>
+        <v>0.2969707967548021</v>
       </c>
       <c r="O13" t="n">
-        <v>0.000326278886513709</v>
+        <v>0.2969707967548021</v>
       </c>
       <c r="P13" t="n">
-        <v>1.792500312859041</v>
+        <v>3.025237370123504</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.2264475824825025, 2.35855304323558]</t>
+          <t>[-0.10692107129334705, 6.157395811540355]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.6029966225517e-06</v>
+        <v>0.05760870467546875</v>
       </c>
       <c r="S13" t="n">
-        <v>1.6029966225517e-06</v>
+        <v>0.05760870467546875</v>
       </c>
       <c r="T13" t="n">
-        <v>773.3917244753206</v>
+        <v>842.6653341234553</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[667.9947305905985, 878.7887183600428]</t>
+          <t>[645.6888146374372, 1039.6418536094734]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>7.720490913243339e-13</v>
+        <v>1.440057362245284e-08</v>
       </c>
       <c r="W13" t="n">
-        <v>7.720490913243339e-13</v>
+        <v>1.440057362245284e-08</v>
       </c>
       <c r="X13" t="n">
-        <v>17.06024024024045</v>
+        <v>12.371851851852</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.90978978978997</v>
+        <v>0.4776776776776845</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.21069069069092</v>
+        <v>24.26602602602632</v>
       </c>
     </row>
     <row r="14">
@@ -1597,85 +1597,85 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007103480335906021</v>
+        <v>0.5160671197406277</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0007103480335906021</v>
+        <v>0.5160671197406277</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>426.0634844923314</v>
+        <v>140.3520101991288</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[180.32218220008235, 671.8047867845804]</t>
+          <t>[-187.95905381528576, 468.66307421354327]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.001661336094312071</v>
+        <v>0.3840585188143271</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001661336094312071</v>
+        <v>0.3840585188143271</v>
       </c>
       <c r="P14" t="n">
-        <v>1.842816111114733</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 2.4969214884387343]</t>
+          <t>[-1.2138686329185795, 5.050448249915123]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>8.144501468576593e-06</v>
+        <v>0.2167016220312328</v>
       </c>
       <c r="S14" t="n">
-        <v>8.144501468576593e-06</v>
+        <v>0.2167016220312328</v>
       </c>
       <c r="T14" t="n">
-        <v>754.7149147245334</v>
+        <v>698.4359267098578</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[618.0025724592042, 891.4272569898626]</t>
+          <t>[522.5066293578313, 874.3652240618842]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.639861579860735e-10</v>
+        <v>4.95160692448593e-08</v>
       </c>
       <c r="W14" t="n">
-        <v>1.639861579860735e-10</v>
+        <v>4.95160692448593e-08</v>
       </c>
       <c r="X14" t="n">
-        <v>16.8690890890893</v>
+        <v>16.57541541541562</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.3841241241243</v>
+        <v>4.681241241241301</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.35405405405429</v>
+        <v>28.46958958958994</v>
       </c>
     </row>
     <row r="15">
@@ -1683,85 +1683,85 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>9.442334769627081e-08</v>
+        <v>0.3968024395322896</v>
       </c>
       <c r="I15" t="n">
-        <v>9.442334769627081e-08</v>
+        <v>0.3968024395322896</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>574.6226782106478</v>
+        <v>131.6774535576115</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[429.89481961704007, 719.3505368042555]</t>
+          <t>[-109.68343620181474, 373.03834331703774]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.943783293853699e-08</v>
+        <v>0.2693451045929209</v>
       </c>
       <c r="O15" t="n">
-        <v>4.943783293853699e-08</v>
+        <v>0.2693451045929209</v>
       </c>
       <c r="P15" t="n">
-        <v>1.578658170272348</v>
+        <v>-3.107000542289005</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1.2767633807381928, 1.8805529598065034]</t>
+          <t>[-6.232869508923894, 0.018868424345884982]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.375755313645868e-10</v>
+        <v>0.05127600913545116</v>
       </c>
       <c r="S15" t="n">
-        <v>4.375755313645868e-10</v>
+        <v>0.05127600913545116</v>
       </c>
       <c r="T15" t="n">
-        <v>825.9753625244767</v>
+        <v>726.6008485433688</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[730.0302180156976, 921.9205070332558]</t>
+          <t>[586.967688575868, 866.2340085108696]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.397282455352979e-14</v>
+        <v>4.777638284991781e-10</v>
       </c>
       <c r="W15" t="n">
-        <v>3.397282455352979e-14</v>
+        <v>4.777638284991781e-10</v>
       </c>
       <c r="X15" t="n">
-        <v>17.87263263263285</v>
+        <v>11.79863863863878</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.72572572572593</v>
+        <v>-0.07165165165165277</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.01953953953977</v>
+        <v>23.66892892892922</v>
       </c>
     </row>
     <row r="16">
@@ -1773,81 +1773,81 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>4.326874850746343e-06</v>
+        <v>0.04266946814454065</v>
       </c>
       <c r="I16" t="n">
-        <v>4.326874850746343e-06</v>
+        <v>0.04266946814454065</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>457.7933217018642</v>
+        <v>221.3939618823965</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[292.8802580248564, 622.706385378872]</t>
+          <t>[11.610657370344484, 431.17726639444845]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>9.912630668518219e-06</v>
+        <v>0.03956804415157666</v>
       </c>
       <c r="O16" t="n">
-        <v>9.912630668518219e-06</v>
+        <v>0.03956804415157666</v>
       </c>
       <c r="P16" t="n">
-        <v>1.792500312859041</v>
+        <v>2.924605773612119</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1.3648160276856567, 2.220184598032426]</t>
+          <t>[1.5660792207084255, 4.283132326515814]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.02873631227618e-08</v>
+        <v>0.0002077455434563724</v>
       </c>
       <c r="S16" t="n">
-        <v>2.02873631227618e-08</v>
+        <v>0.0002077455434563724</v>
       </c>
       <c r="T16" t="n">
-        <v>717.161561726896</v>
+        <v>808.0867659211242</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[619.433356975388, 814.889766478404]</t>
+          <t>[687.8839088297381, 928.2896230125103]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>7.711609129046337e-13</v>
+        <v>4.146905041579885e-12</v>
       </c>
       <c r="W16" t="n">
-        <v>7.711609129046337e-13</v>
+        <v>4.146905041579885e-12</v>
       </c>
       <c r="X16" t="n">
-        <v>17.06024024024045</v>
+        <v>12.75399399399415</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.43545545545564</v>
+        <v>7.595075075075171</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.68502502502525</v>
+        <v>17.91291291291313</v>
       </c>
     </row>
     <row r="17">
@@ -1859,81 +1859,81 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>4.030886362449415e-05</v>
+        <v>6.394671855647349e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>4.030886362449415e-05</v>
+        <v>6.394671855647349e-05</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>537.263966503994</v>
+        <v>201.4023100250525</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[292.51275708472053, 782.0151759232674]</t>
+          <t>[108.19678625395096, 294.60783379615395]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.0001683510381829123</v>
+        <v>0.0001995923719242398</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0001683510381829123</v>
+        <v>0.0001995923719242398</v>
       </c>
       <c r="P17" t="n">
-        <v>1.918289808498272</v>
+        <v>-2.893158399702312</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1.4402897250691948, 2.39628989192735]</t>
+          <t>[-3.446632180514929, -2.3396846188896956]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.151031829380258e-08</v>
+        <v>4.404330233853671e-10</v>
       </c>
       <c r="S17" t="n">
-        <v>4.151031829380258e-08</v>
+        <v>4.404330233853671e-10</v>
       </c>
       <c r="T17" t="n">
-        <v>787.4161861817129</v>
+        <v>534.7084645409934</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[652.3968361697982, 922.4355361936275]</t>
+          <t>[481.9680342773969, 587.4488948045899]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>5.985567597122099e-11</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="W17" t="n">
-        <v>5.985567597122099e-11</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="X17" t="n">
-        <v>16.58236236236256</v>
+        <v>10.98658658658672</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.76642642642661</v>
+        <v>8.884804804804915</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.39829829829852</v>
+        <v>13.08836836836853</v>
       </c>
     </row>
     <row r="18">
@@ -1945,81 +1945,81 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-06-26</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>5.136147652207157e-05</v>
+        <v>0.0006006161911665808</v>
       </c>
       <c r="I18" t="n">
-        <v>5.136147652207157e-05</v>
+        <v>0.0006006161911665808</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>481.6313724143099</v>
+        <v>221.6855269657965</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[249.56017157738017, 713.7025732512396]</t>
+          <t>[104.914488885156, 338.45656504643694]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.0003052281055389017</v>
+        <v>0.0007355094098659976</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0003052281055389017</v>
+        <v>0.0007355094098659976</v>
       </c>
       <c r="P18" t="n">
-        <v>1.981184556317888</v>
+        <v>3.062974218815274</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[1.478026573760964, 2.4843425388748113]</t>
+          <t>[2.396289891927349, 3.7296585457031988]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>5.658059798463455e-08</v>
+        <v>4.277531218122022e-09</v>
       </c>
       <c r="S18" t="n">
-        <v>5.658059798463455e-08</v>
+        <v>4.277531218122022e-09</v>
       </c>
       <c r="T18" t="n">
-        <v>786.9016697060169</v>
+        <v>485.3844077210947</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[663.5239777827502, 910.2793616292837]</t>
+          <t>[415.0006681347119, 555.7681473074775]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>1.124633719484791e-11</v>
+        <v>2.548850019934434e-12</v>
       </c>
       <c r="W18" t="n">
-        <v>1.124633719484791e-11</v>
+        <v>2.548850019934434e-12</v>
       </c>
       <c r="X18" t="n">
-        <v>16.34342342342362</v>
+        <v>12.2285485485487</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.43191191191209</v>
+        <v>9.696856856856972</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.25493493493516</v>
+        <v>14.76024024024042</v>
       </c>
     </row>
     <row r="19">
@@ -2031,81 +2031,81 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>6.078692225486293e-05</v>
+        <v>0.003028530352610193</v>
       </c>
       <c r="I19" t="n">
-        <v>6.078692225486293e-05</v>
+        <v>0.003028530352610193</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>478.3148503116462</v>
+        <v>416.1498431278633</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[255.95968821152485, 700.6700124117675]</t>
+          <t>[116.92998176446633, 715.3697044912602]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.0002094525209426212</v>
+        <v>0.008715497440973774</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0002094525209426212</v>
+        <v>0.008715497440973774</v>
       </c>
       <c r="P19" t="n">
-        <v>1.981184556317888</v>
+        <v>2.622710984077965</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[1.4654476241970409, 2.4969214884387343]</t>
+          <t>[1.9182898084982716, 3.3271321596576593]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.422951536246615e-08</v>
+        <v>1.384856880282115e-07</v>
       </c>
       <c r="S19" t="n">
-        <v>8.422951536246615e-08</v>
+        <v>1.384856880282115e-07</v>
       </c>
       <c r="T19" t="n">
-        <v>770.5740481278258</v>
+        <v>824.844810055796</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[646.4373003836483, 894.7107958720032]</t>
+          <t>[669.4176203117324, 980.2719997998595]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>1.872146881964909e-11</v>
+        <v>3.35412586593975e-10</v>
       </c>
       <c r="W19" t="n">
-        <v>1.872146881964909e-11</v>
+        <v>3.35412586593975e-10</v>
       </c>
       <c r="X19" t="n">
-        <v>16.34342342342362</v>
+        <v>13.90042042042059</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.3841241241243</v>
+        <v>11.22542542542556</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.30272272272294</v>
+        <v>16.57541541541562</v>
       </c>
     </row>
     <row r="20">
@@ -2117,81 +2117,81 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1.443683807289542e-05</v>
+        <v>0.0211260825978371</v>
       </c>
       <c r="I20" t="n">
-        <v>1.443683807289542e-05</v>
+        <v>0.0211260825978371</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>475.7462765066283</v>
+        <v>226.7679547205038</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[265.9473796933921, 685.5451733198645]</t>
+          <t>[40.58504182354545, 412.95086761746217]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.000117564376732826</v>
+        <v>0.01934785451925247</v>
       </c>
       <c r="O20" t="n">
-        <v>0.000117564376732826</v>
+        <v>0.01934785451925247</v>
       </c>
       <c r="P20" t="n">
-        <v>2.106974051957119</v>
+        <v>3.012658420559581</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[1.6415529180919641, 2.5723951858222733]</t>
+          <t>[1.8553950606786564, 4.1699217804405055]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5.513322909322937e-09</v>
+        <v>2.271576016599219e-05</v>
       </c>
       <c r="S20" t="n">
-        <v>5.513322909322937e-09</v>
+        <v>2.271576016599219e-05</v>
       </c>
       <c r="T20" t="n">
-        <v>796.9017950372851</v>
+        <v>692.7195790249295</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[686.0863282203068, 907.7172618542634]</t>
+          <t>[583.2333764884768, 802.2057815613823]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>1.139977001685111e-12</v>
+        <v>1.308242403297299e-11</v>
       </c>
       <c r="W20" t="n">
-        <v>1.139977001685111e-12</v>
+        <v>1.308242403297299e-11</v>
       </c>
       <c r="X20" t="n">
-        <v>15.86554554554574</v>
+        <v>12.41961961961977</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.09739739739757</v>
+        <v>8.024984984985085</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.63369369369391</v>
+        <v>16.81425425425446</v>
       </c>
     </row>
     <row r="21">
@@ -2199,85 +2199,85 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>8.379340961650605e-05</v>
+        <v>0.2434006953494868</v>
       </c>
       <c r="I21" t="n">
-        <v>8.379340961650605e-05</v>
+        <v>0.2434006953494868</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>510.373983226997</v>
+        <v>173.5339997647732</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[249.20596827860692, 771.5419981753871]</t>
+          <t>[-99.71794205148939, 446.78594158103584]</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.0005575972612417157</v>
+        <v>0.2008143638606543</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0005575972612417157</v>
+        <v>0.2008143638606543</v>
       </c>
       <c r="P21" t="n">
-        <v>2.232763547596349</v>
+        <v>-2.855421551010543</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[1.7296055650394244, 2.7359215301532736]</t>
+          <t>[-5.635369404637546, -0.07547369738353904]</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>7.755941666687249e-09</v>
+        <v>0.04460697688135373</v>
       </c>
       <c r="S21" t="n">
-        <v>7.755941666687249e-09</v>
+        <v>0.04460697688135373</v>
       </c>
       <c r="T21" t="n">
-        <v>790.4534771342533</v>
+        <v>747.429650024128</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>[654.5153375792734, 926.3916166892332]</t>
+          <t>[600.5021562679519, 894.3571437803041]</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>6.318878753575063e-11</v>
+        <v>7.164688842209443e-10</v>
       </c>
       <c r="W21" t="n">
-        <v>6.318878753575063e-11</v>
+        <v>7.164688842209443e-10</v>
       </c>
       <c r="X21" t="n">
-        <v>15.38766766766786</v>
+        <v>10.84328328328341</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.47615615615632</v>
+        <v>0.2866066066066111</v>
       </c>
       <c r="Z21" t="n">
-        <v>17.2991791791794</v>
+        <v>21.39995995996022</v>
       </c>
     </row>
     <row r="22">
@@ -2285,85 +2285,85 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>6.635159954804237e-08</v>
+        <v>0.1314167664153869</v>
       </c>
       <c r="I22" t="n">
-        <v>6.635159954804237e-08</v>
+        <v>0.1314167664153869</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>735.3961425450965</v>
+        <v>198.8341382329569</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[505.92958412275755, 964.8627009674354]</t>
+          <t>[-44.112653092245694, 441.78092955815947]</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1.347701449327943e-06</v>
+        <v>0.1035126411106417</v>
       </c>
       <c r="O22" t="n">
-        <v>1.347701449327943e-06</v>
+        <v>0.1035126411106417</v>
       </c>
       <c r="P22" t="n">
-        <v>2.018921405009657</v>
+        <v>-3.00636894577762</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[1.6918687163476562, 2.345974093671657]</t>
+          <t>[-4.691948187343315, -1.3207897042119248]</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.07751593706007e-11</v>
+        <v>0.001299510913118196</v>
       </c>
       <c r="S22" t="n">
-        <v>2.07751593706007e-11</v>
+        <v>0.001299510913118196</v>
       </c>
       <c r="T22" t="n">
-        <v>972.4655698566065</v>
+        <v>736.6910850540136</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>[852.222269295675, 1092.708870417538]</t>
+          <t>[598.179888147283, 875.2022819607441]</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>1.161293283757914e-13</v>
+        <v>3.223565858689881e-10</v>
       </c>
       <c r="W22" t="n">
-        <v>1.161293283757914e-13</v>
+        <v>3.223565858689881e-10</v>
       </c>
       <c r="X22" t="n">
-        <v>16.20006006006026</v>
+        <v>11.41649649649664</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.95757757757776</v>
+        <v>5.015615615615676</v>
       </c>
       <c r="Z22" t="n">
-        <v>17.44254254254276</v>
+        <v>17.8173773773776</v>
       </c>
     </row>
     <row r="23">
@@ -2371,85 +2371,85 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1.917450531685461e-09</v>
+        <v>0.04566693123224774</v>
       </c>
       <c r="I23" t="n">
-        <v>1.917450531685461e-09</v>
+        <v>0.04566693123224774</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>569.4331143071322</v>
+        <v>262.2631543616719</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[437.28735336747513, 701.5788752467893]</t>
+          <t>[-12.117592401526508, 536.6439011248702]</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1.27483268386186e-08</v>
+        <v>0.06003190667558389</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27483268386186e-08</v>
+        <v>0.06003190667558389</v>
       </c>
       <c r="P23" t="n">
-        <v>1.918289808498272</v>
+        <v>-2.566105711040311</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[1.654131867655888, 2.182447749340657]</t>
+          <t>[-4.2391060030420835, -0.8931054190385392]</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>9.441336601412331e-13</v>
+        <v>0.004406713658721584</v>
       </c>
       <c r="S23" t="n">
-        <v>9.441336601412331e-13</v>
+        <v>0.004406713658721584</v>
       </c>
       <c r="T23" t="n">
-        <v>832.3386565427802</v>
+        <v>740.0571615429753</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>[756.474811714502, 908.2025013710584]</t>
+          <t>[595.9667166805464, 884.1476064054043]</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.037970123884406e-10</v>
       </c>
       <c r="W23" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.037970123884406e-10</v>
       </c>
       <c r="X23" t="n">
-        <v>16.58236236236256</v>
+        <v>9.744624624624741</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.57881881881901</v>
+        <v>3.391511511511549</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.58590590590612</v>
+        <v>16.09773773773793</v>
       </c>
     </row>
     <row r="24">
@@ -2461,81 +2461,81 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>7.307180494020571e-08</v>
+        <v>0.001927510038196911</v>
       </c>
       <c r="I24" t="n">
-        <v>7.307180494020571e-08</v>
+        <v>0.001927510038196911</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>533.3605866747641</v>
+        <v>255.3329331308215</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[372.83622292530265, 693.8849504242256]</t>
+          <t>[99.9813981104935, 410.68446815114953]</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>7.927512146732596e-07</v>
+        <v>0.002586285988606107</v>
       </c>
       <c r="O24" t="n">
-        <v>7.927512146732596e-07</v>
+        <v>0.002586285988606107</v>
       </c>
       <c r="P24" t="n">
-        <v>1.993763505881811</v>
+        <v>-2.956053147521927</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[1.6792897667837323, 2.308237244979889]</t>
+          <t>[-3.7107901213573142, -2.2013161736865405]</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1.25865984301754e-11</v>
+        <v>6.165337773644808e-08</v>
       </c>
       <c r="S24" t="n">
-        <v>1.25865984301754e-11</v>
+        <v>6.165337773644808e-08</v>
       </c>
       <c r="T24" t="n">
-        <v>810.5752863424875</v>
+        <v>690.5046524708886</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>[722.7846262245088, 898.3659464604663]</t>
+          <t>[599.5693360648256, 781.4399688769515]</t>
         </is>
       </c>
       <c r="V24" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>3.976818874207311e-13</v>
       </c>
       <c r="W24" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>3.976818874207311e-13</v>
       </c>
       <c r="X24" t="n">
-        <v>16.29563563563583</v>
+        <v>11.22542542542556</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.10094094094112</v>
+        <v>8.359359359359456</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.49033033033055</v>
+        <v>14.09149149149167</v>
       </c>
     </row>
     <row r="25">
@@ -2547,81 +2547,81 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.181404774021956e-05</v>
+        <v>0.004722009382083225</v>
       </c>
       <c r="I25" t="n">
-        <v>3.181404774021956e-05</v>
+        <v>0.004722009382083225</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>476.4277370831809</v>
+        <v>290.230011927003</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[245.70671539539347, 707.1487587709682]</t>
+          <t>[67.35909542015645, 513.1009284338496]</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.0003214434011737932</v>
+        <v>0.01316983064513111</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0003214434011737932</v>
+        <v>0.01316983064513111</v>
       </c>
       <c r="P25" t="n">
-        <v>2.35855304323558</v>
+        <v>-2.402579366709311</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[1.9057108589343477, 2.8113952275368126]</t>
+          <t>[-3.0566847440333125, -1.7484739893853098]</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.700979605587463e-10</v>
+        <v>1.714060644530946e-07</v>
       </c>
       <c r="S25" t="n">
-        <v>4.700979605587463e-10</v>
+        <v>1.714060644530946e-07</v>
       </c>
       <c r="T25" t="n">
-        <v>755.1249238974673</v>
+        <v>753.575636528627</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>[637.2840100986737, 872.9658376962609]</t>
+          <t>[639.4306226514166, 867.7206504058374]</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>1.029309970590475e-11</v>
+        <v>5.853983964243525e-12</v>
       </c>
       <c r="W25" t="n">
-        <v>1.029309970590475e-11</v>
+        <v>5.853983964243525e-12</v>
       </c>
       <c r="X25" t="n">
-        <v>14.90978978978997</v>
+        <v>9.123643643643755</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.18942942942959</v>
+        <v>6.6397197197198</v>
       </c>
       <c r="Z25" t="n">
-        <v>16.63015015015036</v>
+        <v>11.60756756756771</v>
       </c>
     </row>
     <row r="26">
@@ -2633,81 +2633,81 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>8.124475302995204e-05</v>
+        <v>0.03577124333807113</v>
       </c>
       <c r="I26" t="n">
-        <v>8.124475302995204e-05</v>
+        <v>0.03577124333807113</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>485.2262985615187</v>
+        <v>241.67241674159</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[236.04096183623074, 734.4116352868066]</t>
+          <t>[15.978680509971639, 467.36615297320844]</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.0005771905993547932</v>
+        <v>0.0370316824333059</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0005771905993547932</v>
+        <v>0.0370316824333059</v>
       </c>
       <c r="P26" t="n">
-        <v>2.257921446724196</v>
+        <v>-2.918316298830158</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[1.7673424137311953, 2.7485004797171966]</t>
+          <t>[-4.22652705347816, -1.6101055441821566]</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>4.147605370263818e-09</v>
+        <v>0.0001410979386877731</v>
       </c>
       <c r="S26" t="n">
-        <v>4.147605370263818e-09</v>
+        <v>0.0001410979386877731</v>
       </c>
       <c r="T26" t="n">
-        <v>783.9105020086949</v>
+        <v>711.0586397482209</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>[654.8797576401254, 912.9412463772645]</t>
+          <t>[583.775778980035, 838.3415005164068]</t>
         </is>
       </c>
       <c r="V26" t="n">
-        <v>2.79949396997381e-11</v>
+        <v>1.319924169962405e-10</v>
       </c>
       <c r="W26" t="n">
-        <v>2.79949396997381e-11</v>
+        <v>1.319924169962405e-10</v>
       </c>
       <c r="X26" t="n">
-        <v>15.29209209209228</v>
+        <v>11.08212212212226</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.42836836836853</v>
+        <v>6.114274274274353</v>
       </c>
       <c r="Z26" t="n">
-        <v>17.15581581581603</v>
+        <v>16.04996996997017</v>
       </c>
     </row>
     <row r="27">
@@ -2715,85 +2715,85 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-07-03</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1.101306764483834e-05</v>
+        <v>0.3116745932468217</v>
       </c>
       <c r="I27" t="n">
-        <v>1.101306764483834e-05</v>
+        <v>0.3116745932468217</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>497.4622201504899</v>
+        <v>194.8978701005866</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[274.7352006205278, 720.1892396804519]</t>
+          <t>[-123.9863044426645, 513.7820446438377]</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.0001391977520333043</v>
+        <v>0.2176163956594757</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0001391977520333043</v>
+        <v>0.2176163956594757</v>
       </c>
       <c r="P27" t="n">
-        <v>2.345974093671658</v>
+        <v>3.012658420559581</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[1.9308687580621955, 2.7610794292811196]</t>
+          <t>[-0.11321054607530812, 6.13852738719447]</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.0675926809256e-10</v>
+        <v>0.05810427615480873</v>
       </c>
       <c r="S27" t="n">
-        <v>1.0675926809256e-10</v>
+        <v>0.05810427615480873</v>
       </c>
       <c r="T27" t="n">
-        <v>774.7936642712712</v>
+        <v>837.5938183599552</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>[661.0474841396173, 888.539844402925]</t>
+          <t>[654.6596820824102, 1020.5279546375002]</t>
         </is>
       </c>
       <c r="V27" t="n">
-        <v>3.227640377190255e-12</v>
+        <v>4.537003883697821e-09</v>
       </c>
       <c r="W27" t="n">
-        <v>3.227640377190255e-12</v>
+        <v>4.537003883697821e-09</v>
       </c>
       <c r="X27" t="n">
-        <v>14.95757757757776</v>
+        <v>12.41961961961977</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.38058058058074</v>
+        <v>0.5493293293293391</v>
       </c>
       <c r="Z27" t="n">
-        <v>16.53457457457478</v>
+        <v>24.28990990991021</v>
       </c>
     </row>
     <row r="28">
@@ -2801,85 +2801,85 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>4.192814059611472e-06</v>
+        <v>0.2257723537520993</v>
       </c>
       <c r="I28" t="n">
-        <v>4.192814059611472e-06</v>
+        <v>0.2257723537520993</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>567.1632653917767</v>
+        <v>145.690930014311</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[334.82773396015205, 799.4987968234013]</t>
+          <t>[-64.64996892845318, 356.03182895707516]</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>5.002795909070379e-05</v>
+        <v>0.1644901511172199</v>
       </c>
       <c r="O28" t="n">
-        <v>5.002795909070379e-05</v>
+        <v>0.1644901511172199</v>
       </c>
       <c r="P28" t="n">
-        <v>2.232763547596349</v>
+        <v>2.987500521431735</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>[1.8302371615508095, 2.6352899336418885]</t>
+          <t>[0.006289474781961957, 5.968711568081509]</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.503048796536177e-10</v>
+        <v>0.0495607997830454</v>
       </c>
       <c r="S28" t="n">
-        <v>1.503048796536177e-10</v>
+        <v>0.0495607997830454</v>
       </c>
       <c r="T28" t="n">
-        <v>821.6796369139221</v>
+        <v>694.3095648841802</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>[700.6215402415819, 942.7377335862623]</t>
+          <t>[574.3090341046457, 814.3100956637147]</t>
         </is>
       </c>
       <c r="V28" t="n">
-        <v>3.453681785003937e-12</v>
+        <v>6.928169149489349e-11</v>
       </c>
       <c r="W28" t="n">
-        <v>3.453681785003937e-12</v>
+        <v>6.928169149489349e-11</v>
       </c>
       <c r="X28" t="n">
-        <v>15.38766766766786</v>
+        <v>12.51515515515531</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.85845845845863</v>
+        <v>1.194194194194209</v>
       </c>
       <c r="Z28" t="n">
-        <v>16.91687687687709</v>
+        <v>23.83611611611641</v>
       </c>
     </row>
     <row r="29">
@@ -2887,85 +2887,85 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2022-07-07</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>5.304645611658998e-13</v>
+        <v>0.349875528455907</v>
       </c>
       <c r="I29" t="n">
-        <v>5.304645611658998e-13</v>
+        <v>0.349875528455907</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>807.0799056763581</v>
+        <v>131.6979853619584</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[674.0119932959703, 940.1478180567458]</t>
+          <t>[-118.86658306615823, 382.262553790075]</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2.888711492232687e-11</v>
+        <v>0.2867503306083947</v>
       </c>
       <c r="O29" t="n">
-        <v>2.888711492232687e-11</v>
+        <v>0.2867503306083947</v>
       </c>
       <c r="P29" t="n">
-        <v>2.106974051957119</v>
+        <v>-2.603842559732081</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>[1.9308687580621955, 2.283079345852042]</t>
+          <t>[-5.7422904759308935, 0.5346053564667317]</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.09914797254655539</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>0.09914797254655539</v>
       </c>
       <c r="T29" t="n">
-        <v>896.8628668215853</v>
+        <v>730.7711362612552</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>[827.2211959172948, 966.5045377258757]</t>
+          <t>[600.3835861570285, 861.1586863654818]</t>
         </is>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.24379173627176e-10</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.24379173627176e-10</v>
       </c>
       <c r="X29" t="n">
-        <v>15.86554554554574</v>
+        <v>9.88792792792805</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.1965165165167</v>
+        <v>-2.030130130130155</v>
       </c>
       <c r="Z29" t="n">
-        <v>16.53457457457478</v>
+        <v>21.80598598598625</v>
       </c>
     </row>
     <row r="30">
@@ -2973,85 +2973,85 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>23.87000000000029</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.631031493782743e-06</v>
+        <v>0.1320469128778539</v>
       </c>
       <c r="I30" t="n">
-        <v>2.631031493782743e-06</v>
+        <v>0.1320469128778539</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>444.9375960312907</v>
+        <v>219.0223056180023</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[266.09274624680097, 623.7824458157804]</t>
+          <t>[-63.76360297035387, 501.80821420635846]</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.981167113109585e-05</v>
+        <v>0.1221759301813785</v>
       </c>
       <c r="O30" t="n">
-        <v>3.981167113109585e-05</v>
+        <v>0.1221759301813785</v>
       </c>
       <c r="P30" t="n">
-        <v>2.446605690183042</v>
+        <v>-2.754789954499158</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>[2.0440793041375027, 2.8491320762285817]</t>
+          <t>[-5.333474615103392, -0.17610529389492413]</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.775979446312249e-11</v>
+        <v>0.03743258435259356</v>
       </c>
       <c r="S30" t="n">
-        <v>2.775979446312249e-11</v>
+        <v>0.03743258435259356</v>
       </c>
       <c r="T30" t="n">
-        <v>737.1043179332376</v>
+        <v>736.3195715535985</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>[644.9461406846738, 829.2624951818013]</t>
+          <t>[583.6950636973777, 888.9440794098193]</t>
         </is>
       </c>
       <c r="V30" t="n">
-        <v>1.443289932012704e-13</v>
+        <v>1.829201456970964e-09</v>
       </c>
       <c r="W30" t="n">
-        <v>1.443289932012704e-13</v>
+        <v>1.829201456970964e-09</v>
       </c>
       <c r="X30" t="n">
-        <v>14.57527527527545</v>
+        <v>10.46114114114127</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.04606606606622</v>
+        <v>0.6687487487487598</v>
       </c>
       <c r="Z30" t="n">
-        <v>16.10448448448468</v>
+        <v>20.25353353353378</v>
       </c>
     </row>
     <row r="31">
@@ -3059,85 +3059,85 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2022-07-07</t>
+          <t>2022-07-09</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>23.87000000000029</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0001632888067640836</v>
+        <v>0.03957253826794616</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0001632888067640836</v>
+        <v>0.03957253826794616</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>471.1027489882034</v>
+        <v>240.6663639254379</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[213.7588863876382, 728.4466115887685]</t>
+          <t>[-1.426912275467032, 482.7596401263428]</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.001029640370400875</v>
+        <v>0.05124562513351716</v>
       </c>
       <c r="O31" t="n">
-        <v>0.001029640370400875</v>
+        <v>0.05124562513351716</v>
       </c>
       <c r="P31" t="n">
-        <v>2.220184598032426</v>
+        <v>-2.817684702318773</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>[1.6792897667837332, 2.7610794292811187]</t>
+          <t>[-4.2013691543503136, -1.4340002502872333]</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.866697634829052e-08</v>
+        <v>0.0003705567109433261</v>
       </c>
       <c r="S31" t="n">
-        <v>2.866697634829052e-08</v>
+        <v>0.0003705567109433261</v>
       </c>
       <c r="T31" t="n">
-        <v>810.6076181086314</v>
+        <v>694.2677830203244</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>[677.9142569922382, 943.3009792250247]</t>
+          <t>[565.1691012383892, 823.3664648022595]</t>
         </is>
       </c>
       <c r="V31" t="n">
-        <v>2.526268083613559e-11</v>
+        <v>2.639082286037819e-10</v>
       </c>
       <c r="W31" t="n">
-        <v>2.526268083613559e-11</v>
+        <v>2.639082286037819e-10</v>
       </c>
       <c r="X31" t="n">
-        <v>15.43545545545565</v>
+        <v>10.64616616616629</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.38058058058075</v>
+        <v>5.418138138138199</v>
       </c>
       <c r="Z31" t="n">
-        <v>17.49033033033054</v>
+        <v>15.87419419419437</v>
       </c>
     </row>
     <row r="32">
@@ -3145,85 +3145,85 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-07-10</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>23.87000000000029</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>8.847530486022492e-10</v>
+        <v>0.1236375504103774</v>
       </c>
       <c r="I32" t="n">
-        <v>8.847530486022492e-10</v>
+        <v>0.1236375504103774</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>650.2296842688492</v>
+        <v>176.0504488952747</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[494.6654212028991, 805.7939473347992]</t>
+          <t>[-31.399297840369684, 383.500195630919]</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.122462561260363e-08</v>
+        <v>0.09213001293147505</v>
       </c>
       <c r="O32" t="n">
-        <v>2.122462561260363e-08</v>
+        <v>0.09213001293147505</v>
       </c>
       <c r="P32" t="n">
-        <v>2.622710984077965</v>
+        <v>3.062974218815274</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>[2.3711319927995036, 2.8742899753564273]</t>
+          <t>[1.4654476241970409, 4.660500813433507]</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0.0006697438450076199</v>
       </c>
       <c r="S32" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0.0006697438450076199</v>
       </c>
       <c r="T32" t="n">
-        <v>845.0611271562394</v>
+        <v>704.3847901898121</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>[761.7937711952378, 928.328483117241]</t>
+          <t>[583.5145569504227, 825.2550234292014]</t>
         </is>
       </c>
       <c r="V32" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>6.067080171590078e-11</v>
       </c>
       <c r="W32" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>6.067080171590078e-11</v>
       </c>
       <c r="X32" t="n">
-        <v>13.90624624624642</v>
+        <v>12.16704704704718</v>
       </c>
       <c r="Y32" t="n">
-        <v>12.95049049049065</v>
+        <v>6.13105105105112</v>
       </c>
       <c r="Z32" t="n">
-        <v>14.86200200200218</v>
+        <v>18.20304304304325</v>
       </c>
     </row>
     <row r="33">
@@ -3231,85 +3231,85 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2022-07-09</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>23.87000000000029</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>4.23484294298504e-08</v>
+        <v>0.65141856976177</v>
       </c>
       <c r="I33" t="n">
-        <v>4.23484294298504e-08</v>
+        <v>0.65141856976177</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>566.3247665167934</v>
+        <v>79.70328302052644</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>[395.31569113601654, 737.3338418975702]</t>
+          <t>[-160.77531218262516, 320.18187822367804]</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>8.325542131260022e-07</v>
+        <v>0.4982060817885554</v>
       </c>
       <c r="O33" t="n">
-        <v>8.325542131260022e-07</v>
+        <v>0.4982060817885554</v>
       </c>
       <c r="P33" t="n">
-        <v>2.660447832769735</v>
+        <v>-2.616421509296004</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>[2.3459740936716575, 2.9749215718678124]</t>
+          <t>[-5.7485799507128545, 0.5157369321208467]</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.796163466380676e-14</v>
+        <v>0.09700071324505588</v>
       </c>
       <c r="S33" t="n">
-        <v>4.796163466380676e-14</v>
+        <v>0.09700071324505588</v>
       </c>
       <c r="T33" t="n">
-        <v>819.513519279255</v>
+        <v>685.915216833632</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>[729.0696612652309, 909.957377293279]</t>
+          <t>[560.2842578222735, 811.5461758449906]</t>
         </is>
       </c>
       <c r="V33" t="n">
-        <v>1.243449787580175e-14</v>
+        <v>2.005615673539296e-10</v>
       </c>
       <c r="W33" t="n">
-        <v>1.243449787580175e-14</v>
+        <v>2.005615673539296e-10</v>
       </c>
       <c r="X33" t="n">
-        <v>13.76288288288305</v>
+        <v>9.885725725725839</v>
       </c>
       <c r="Y33" t="n">
-        <v>12.56818818818834</v>
+        <v>-1.948628628628651</v>
       </c>
       <c r="Z33" t="n">
-        <v>14.95757757757776</v>
+        <v>21.72008008008033</v>
       </c>
     </row>
     <row r="34">
@@ -3317,85 +3317,85 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2022-07-10</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>23.87000000000029</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1.023048312731589e-11</v>
+        <v>0.2794977874471445</v>
       </c>
       <c r="I34" t="n">
-        <v>1.023048312731589e-11</v>
+        <v>0.2794977874471445</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>829.215049808495</v>
+        <v>194.4339168155649</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[677.5610387026431, 980.8690609143468]</t>
+          <t>[-122.74790739661432, 511.6157410277441]</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1.952613626343691e-10</v>
+        <v>0.2163006560164005</v>
       </c>
       <c r="O34" t="n">
-        <v>1.952613626343691e-10</v>
+        <v>0.2163006560164005</v>
       </c>
       <c r="P34" t="n">
-        <v>2.735921530153273</v>
+        <v>3.012658420559582</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>[2.534658337130504, 2.9371847231760424]</t>
+          <t>[-0.12578949563923114, 6.151106336758395]</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.05903436567135789</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.05903436567135789</v>
       </c>
       <c r="T34" t="n">
-        <v>940.95763587248</v>
+        <v>784.326512136472</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>[857.3126328786534, 1024.6026388663065]</t>
+          <t>[609.8711906533547, 958.7818336195894]</t>
         </is>
       </c>
       <c r="V34" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.205884250931604e-09</v>
       </c>
       <c r="W34" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>6.205884250931604e-09</v>
       </c>
       <c r="X34" t="n">
-        <v>13.47615615615632</v>
+        <v>12.3571571571573</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.71155155155171</v>
+        <v>0.4990390390390402</v>
       </c>
       <c r="Z34" t="n">
-        <v>14.24076076076093</v>
+        <v>24.21527527527555</v>
       </c>
     </row>
     <row r="35">
@@ -3403,85 +3403,85 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2022-07-11</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>23.87000000000029</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>2.353228722995482e-12</v>
+        <v>0.2300238202852093</v>
       </c>
       <c r="I35" t="n">
-        <v>2.353228722995482e-12</v>
+        <v>0.2300238202852093</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>705.9035000073532</v>
+        <v>150.972392563369</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[589.1273028820789, 822.6796971326274]</t>
+          <t>[-70.9680677496874, 372.9128528764254]</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.074585031015431e-11</v>
+        <v>0.171833101492981</v>
       </c>
       <c r="O35" t="n">
-        <v>3.074585031015431e-11</v>
+        <v>0.171833101492981</v>
       </c>
       <c r="P35" t="n">
-        <v>2.72334258058935</v>
+        <v>3.025237370123504</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[2.547237286694427, 2.8994478744842733]</t>
+          <t>[0.19497371824080822, 5.855501022006201]</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>0.03733682438228869</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>0.03733682438228869</v>
       </c>
       <c r="T35" t="n">
-        <v>915.3107322204733</v>
+        <v>693.9508196180213</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>[849.3463047931175, 981.275159647829]</t>
+          <t>[568.4782785705834, 819.4233606654593]</t>
         </is>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.585351849797689e-10</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.585351849797689e-10</v>
       </c>
       <c r="X35" t="n">
-        <v>13.52394394394411</v>
+        <v>12.30962962962977</v>
       </c>
       <c r="Y35" t="n">
-        <v>12.85491491491507</v>
+        <v>1.615935935935953</v>
       </c>
       <c r="Z35" t="n">
-        <v>14.19297297297315</v>
+        <v>23.00332332332358</v>
       </c>
     </row>
     <row r="36">
@@ -3489,85 +3489,85 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-07-12</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>23.87000000000029</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>7.34190486184616e-13</v>
+        <v>0.1787535394760086</v>
       </c>
       <c r="I36" t="n">
-        <v>7.34190486184616e-13</v>
+        <v>0.1787535394760086</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>646.2605817553674</v>
+        <v>197.9897944076714</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[536.7833547095914, 755.7378088011434]</t>
+          <t>[-63.06820720282485, 459.04779601816756]</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.779976414681641e-11</v>
+        <v>0.1296939381664117</v>
       </c>
       <c r="O36" t="n">
-        <v>4.779976414681641e-11</v>
+        <v>0.1296939381664117</v>
       </c>
       <c r="P36" t="n">
-        <v>2.434026740619119</v>
+        <v>-3.107000542289005</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[2.270500396288119, 2.5975530849501194]</t>
+          <t>[-5.7234220515850085, -0.49057903299300065]</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.02218836297750748</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>0.02218836297750748</v>
       </c>
       <c r="T36" t="n">
-        <v>810.8854820879804</v>
+        <v>732.1465445645654</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>[754.0691347935543, 867.7018293824066]</t>
+          <t>[580.9334258811602, 883.3596632479705]</t>
         </is>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.717056496985947e-09</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.717056496985947e-09</v>
       </c>
       <c r="X36" t="n">
-        <v>14.62306306306324</v>
+        <v>11.73929929929943</v>
       </c>
       <c r="Y36" t="n">
-        <v>14.00182182182199</v>
+        <v>1.853573573573595</v>
       </c>
       <c r="Z36" t="n">
-        <v>15.24430430430449</v>
+        <v>21.62502502502527</v>
       </c>
     </row>
     <row r="37">
@@ -3575,85 +3575,85 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>23.87000000000029</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>7.097555876356409e-11</v>
+        <v>0.4956538520811804</v>
       </c>
       <c r="I37" t="n">
-        <v>7.097555876356409e-11</v>
+        <v>0.4956538520811804</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>1086.759401931743</v>
+        <v>139.8282447989596</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[850.9822045925314, 1322.5365992709546]</t>
+          <t>[-185.7883361830875, 465.4448257810068]</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.044789392310122e-09</v>
+        <v>0.3819556715386936</v>
       </c>
       <c r="O37" t="n">
-        <v>4.044789392310122e-09</v>
+        <v>0.3819556715386936</v>
       </c>
       <c r="P37" t="n">
-        <v>2.371131992799504</v>
+        <v>-2.239053022378311</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>[2.157289850212811, 2.5849741353861964]</t>
+          <t>[-5.377500938577123, 0.8993948938205012]</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0.1527557594481177</v>
       </c>
       <c r="S37" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0.1527557594481177</v>
       </c>
       <c r="T37" t="n">
-        <v>1131.018920486387</v>
+        <v>755.199893186978</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>[1009.8873353773818, 1252.1505055953924]</t>
+          <t>[584.716480148951, 925.683306225005]</t>
         </is>
       </c>
       <c r="V37" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>7.989944705855123e-09</v>
       </c>
       <c r="W37" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>7.989944705855123e-09</v>
       </c>
       <c r="X37" t="n">
-        <v>14.86200200200218</v>
+        <v>8.459899899899996</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.04960960960978</v>
+        <v>-3.398218218218258</v>
       </c>
       <c r="Z37" t="n">
-        <v>15.67439439439459</v>
+        <v>20.31801801801825</v>
       </c>
     </row>
     <row r="38">
@@ -3661,85 +3661,85 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>23.69000000000026</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1.03320565325582e-07</v>
+        <v>0.2168696666064527</v>
       </c>
       <c r="I38" t="n">
-        <v>1.03320565325582e-07</v>
+        <v>0.2168696666064527</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>490.0858197047127</v>
+        <v>160.7703584627636</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[337.807494627227, 642.3641447821983]</t>
+          <t>[-61.568534584252404, 383.10925150977954]</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>1.26740996919672e-06</v>
+        <v>0.1475391934471051</v>
       </c>
       <c r="O38" t="n">
-        <v>1.26740996919672e-06</v>
+        <v>0.1475391934471051</v>
       </c>
       <c r="P38" t="n">
-        <v>2.773658378845043</v>
+        <v>-3.018947895341543</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>[2.446605690183042, 3.100711067507043]</t>
+          <t>[-6.094501063720739, 0.05660527303765406]</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.574118861455645e-14</v>
+        <v>0.05398230924888336</v>
       </c>
       <c r="S38" t="n">
-        <v>4.574118861455645e-14</v>
+        <v>0.05398230924888336</v>
       </c>
       <c r="T38" t="n">
-        <v>725.1849052183525</v>
+        <v>686.9547650585753</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>[642.286258221966, 808.0835522147389]</t>
+          <t>[555.9627629196018, 817.9467671975488]</t>
         </is>
       </c>
       <c r="V38" t="n">
-        <v>2.464695114667848e-14</v>
+        <v>4.154958599400516e-10</v>
       </c>
       <c r="W38" t="n">
-        <v>2.464695114667848e-14</v>
+        <v>4.154958599400516e-10</v>
       </c>
       <c r="X38" t="n">
-        <v>13.2322522522524</v>
+        <v>11.40660660660674</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.99913913913927</v>
+        <v>-0.2138738738738759</v>
       </c>
       <c r="Z38" t="n">
-        <v>14.46536536536553</v>
+        <v>23.02708708708735</v>
       </c>
     </row>
     <row r="39">
@@ -3747,85 +3747,85 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2022-07-17</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>23.69000000000026</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1.318112786530268e-05</v>
+        <v>0.1392720785701531</v>
       </c>
       <c r="I39" t="n">
-        <v>1.318112786530268e-05</v>
+        <v>0.1392720785701531</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>362.128809008857</v>
+        <v>205.606424599648</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[215.37503695028926, 508.88258106742484]</t>
+          <t>[-80.31318554525251, 491.5260347445485]</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4.395186961581032e-05</v>
+        <v>0.1496711704910907</v>
       </c>
       <c r="O39" t="n">
-        <v>4.395186961581032e-05</v>
+        <v>0.1496711704910907</v>
       </c>
       <c r="P39" t="n">
-        <v>2.849132076228581</v>
+        <v>-2.301947770197926</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>[2.396289891927349, 3.3019742605298132]</t>
+          <t>[-5.427816736832815, 0.823921196436963]</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>1.45363721060221e-11</v>
+        <v>0.1405807878773857</v>
       </c>
       <c r="S39" t="n">
-        <v>1.45363721060221e-11</v>
+        <v>0.1405807878773857</v>
       </c>
       <c r="T39" t="n">
-        <v>624.9235115963008</v>
+        <v>729.8895858368816</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>[540.634910396223, 709.2121127963787]</t>
+          <t>[584.6611200625985, 875.1180516111647]</t>
         </is>
       </c>
       <c r="V39" t="n">
-        <v>6.321609902215641e-13</v>
+        <v>8.888221270098029e-10</v>
       </c>
       <c r="W39" t="n">
-        <v>6.321609902215641e-13</v>
+        <v>8.888221270098029e-10</v>
       </c>
       <c r="X39" t="n">
-        <v>12.94768768768783</v>
+        <v>8.697537537537636</v>
       </c>
       <c r="Y39" t="n">
-        <v>11.24030030030042</v>
+        <v>-3.11305305305309</v>
       </c>
       <c r="Z39" t="n">
-        <v>14.65507507507524</v>
+        <v>20.50812812812836</v>
       </c>
     </row>
     <row r="40">
@@ -3833,85 +3833,85 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>23.69000000000026</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1.016237179185531e-06</v>
+        <v>0.5292013029730822</v>
       </c>
       <c r="I40" t="n">
-        <v>1.016237179185531e-06</v>
+        <v>0.5292013029730822</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>431.4350428262541</v>
+        <v>131.6684010496287</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[288.4836466867956, 574.3864389657125]</t>
+          <t>[-180.99630259787676, 444.33310469713416]</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.175434002633537e-06</v>
+        <v>0.3910675939253263</v>
       </c>
       <c r="O40" t="n">
-        <v>3.175434002633537e-06</v>
+        <v>0.3910675939253263</v>
       </c>
       <c r="P40" t="n">
-        <v>-2.993789996213696</v>
+        <v>-2.050368778919465</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>[-3.371158483131389, -2.616421509296004]</t>
+          <t>[-5.176237745554354, 1.0755001877154244]</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.691979889528739e-13</v>
+        <v>0.1869810011462547</v>
       </c>
       <c r="S40" t="n">
-        <v>1.691979889528739e-13</v>
+        <v>0.1869810011462547</v>
       </c>
       <c r="T40" t="n">
-        <v>629.6768533496213</v>
+        <v>791.5546994542949</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>[545.3392215455037, 714.0144851537389]</t>
+          <t>[623.0129598556346, 960.0964390529552]</t>
         </is>
       </c>
       <c r="V40" t="n">
-        <v>5.520028878436278e-13</v>
+        <v>2.92350632591365e-09</v>
       </c>
       <c r="W40" t="n">
-        <v>5.520028878436278e-13</v>
+        <v>2.92350632591365e-09</v>
       </c>
       <c r="X40" t="n">
-        <v>11.28772772772785</v>
+        <v>7.746986986987075</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.864904904905014</v>
+        <v>-4.063603603603651</v>
       </c>
       <c r="Z40" t="n">
-        <v>12.71055055055069</v>
+        <v>19.5575775775778</v>
       </c>
     </row>
     <row r="41">
@@ -3919,85 +3919,85 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2022-07-17</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>23.69000000000026</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.000485847586751631</v>
+        <v>0.6585886872690153</v>
       </c>
       <c r="I41" t="n">
-        <v>0.000485847586751631</v>
+        <v>0.6585886872690153</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>366.2057712692151</v>
+        <v>109.2218041454599</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[163.1932729148691, 569.2182696235611]</t>
+          <t>[-216.0221408941461, 434.465749185066]</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.001175565437091075</v>
+        <v>0.4926104034483769</v>
       </c>
       <c r="O41" t="n">
-        <v>0.001175565437091075</v>
+        <v>0.4926104034483769</v>
       </c>
       <c r="P41" t="n">
-        <v>2.88686892492035</v>
+        <v>-2.943474197958004</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>[2.257921446724196, 3.5158164031165047]</t>
+          <t>[-6.081922114156817, 0.19497371824080822]</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.347781024094388e-09</v>
+        <v>0.06459975568119969</v>
       </c>
       <c r="S41" t="n">
-        <v>4.347781024094388e-09</v>
+        <v>0.06459975568119969</v>
       </c>
       <c r="T41" t="n">
-        <v>617.277488619467</v>
+        <v>704.3472476665775</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>[503.07392767250076, 731.4810495664333]</t>
+          <t>[529.4905699530543, 879.2039253801006]</t>
         </is>
       </c>
       <c r="V41" t="n">
-        <v>2.408031551937029e-10</v>
+        <v>3.905594248010402e-08</v>
       </c>
       <c r="W41" t="n">
-        <v>2.408031551937029e-10</v>
+        <v>3.905594248010402e-08</v>
       </c>
       <c r="X41" t="n">
-        <v>12.80540540540555</v>
+        <v>11.12144144144157</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.43403403403415</v>
+        <v>-0.7366766766766855</v>
       </c>
       <c r="Z41" t="n">
-        <v>15.17677677677695</v>
+        <v>22.97955955955982</v>
       </c>
     </row>
     <row r="42">
@@ -4005,85 +4005,85 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>23.69000000000026</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.008162814222523407</v>
+        <v>0.141114964103969</v>
       </c>
       <c r="I42" t="n">
-        <v>0.008162814222523407</v>
+        <v>0.141114964103969</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>256.0934872109232</v>
+        <v>265.2232594675772</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[58.56847929861084, 453.6184951232355]</t>
+          <t>[-82.15878732811143, 612.6053062632658]</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.01352200566239015</v>
+        <v>0.127282408769978</v>
       </c>
       <c r="O42" t="n">
-        <v>0.01352200566239015</v>
+        <v>0.127282408769978</v>
       </c>
       <c r="P42" t="n">
-        <v>2.861711025792504</v>
+        <v>-1.823947686768848</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>[1.9560266571900407, 3.767395394394967]</t>
+          <t>[-4.685658712561352, 1.0377633390236554]</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.654579824483804e-06</v>
+        <v>0.1992560020717093</v>
       </c>
       <c r="S42" t="n">
-        <v>1.654579824483804e-06</v>
+        <v>0.1992560020717093</v>
       </c>
       <c r="T42" t="n">
-        <v>587.6779738751288</v>
+        <v>829.5738139597668</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>[479.36808244937515, 695.9878653008825]</t>
+          <t>[642.5442483614419, 1016.6033795580917]</t>
         </is>
       </c>
       <c r="V42" t="n">
-        <v>2.245694741276338e-10</v>
+        <v>7.815016411782949e-09</v>
       </c>
       <c r="W42" t="n">
-        <v>2.245694741276338e-10</v>
+        <v>7.815016411782949e-09</v>
       </c>
       <c r="X42" t="n">
-        <v>12.90026026026041</v>
+        <v>6.891491491491568</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.485485485485594</v>
+        <v>-3.921021021021067</v>
       </c>
       <c r="Z42" t="n">
-        <v>16.31503503503522</v>
+        <v>17.7040040040042</v>
       </c>
     </row>
     <row r="43">
@@ -4095,81 +4095,81 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2022-07-21</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>23.69000000000026</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1378517618336095</v>
+        <v>0.1879622151157589</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1378517618336095</v>
+        <v>0.1879622151157589</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>211.5902478095484</v>
+        <v>184.2130314439521</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[-63.1517150131161, 486.3322106322129]</t>
+          <t>[-94.60302682335941, 463.0290897112636]</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0.124181264557923</v>
+        <v>0.1839323210178718</v>
       </c>
       <c r="O43" t="n">
-        <v>0.124181264557923</v>
+        <v>0.1839323210178718</v>
       </c>
       <c r="P43" t="n">
-        <v>2.912026824048196</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[1.050342288587578, 4.773711359508814]</t>
+          <t>[-2.0943951023931957, 4.169921780440506]</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>0.003805532754425967</v>
+        <v>0.4983481111542443</v>
       </c>
       <c r="S43" t="n">
-        <v>0.003805532754425967</v>
+        <v>0.4983481111542443</v>
       </c>
       <c r="T43" t="n">
-        <v>677.641714097076</v>
+        <v>865.4856504019849</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>[527.9646363552446, 827.3187918389075]</t>
+          <t>[723.4513289499298, 1007.51997185404]</t>
         </is>
       </c>
       <c r="V43" t="n">
-        <v>5.506414879619115e-09</v>
+        <v>2.648103958335923e-11</v>
       </c>
       <c r="W43" t="n">
-        <v>5.506414879619115e-09</v>
+        <v>2.648103958335923e-11</v>
       </c>
       <c r="X43" t="n">
-        <v>12.71055055055069</v>
+        <v>19.81897897897921</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.691291291291354</v>
+        <v>7.984624624624717</v>
       </c>
       <c r="Z43" t="n">
-        <v>19.72980980981003</v>
+        <v>31.6533333333337</v>
       </c>
     </row>
     <row r="44">
@@ -4181,81 +4181,81 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>23.69000000000026</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.09052168422438278</v>
+        <v>0.2916727762754381</v>
       </c>
       <c r="I44" t="n">
-        <v>0.09052168422438278</v>
+        <v>0.2916727762754381</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>217.2440026546466</v>
+        <v>118.8539346473079</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>[-47.91020278924, 482.39820809853313]</t>
+          <t>[-89.96339313025271, 327.6712624248685]</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0.1031628139721765</v>
+        <v>0.2497708986372316</v>
       </c>
       <c r="O44" t="n">
-        <v>0.1031628139721765</v>
+        <v>0.2497708986372316</v>
       </c>
       <c r="P44" t="n">
-        <v>2.484342538874812</v>
+        <v>-2.188737224122619</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>[-0.45913165908319176, 5.427816736832815]</t>
+          <t>[-5.327185140321432, 0.9497106920761942]</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>0.09379910663416546</v>
+        <v>0.1617444940926802</v>
       </c>
       <c r="S44" t="n">
-        <v>0.09379910663416546</v>
+        <v>0.1617444940926802</v>
       </c>
       <c r="T44" t="n">
-        <v>682.0521309043181</v>
+        <v>682.4770423408233</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>[544.5316606444745, 819.5726011641617]</t>
+          <t>[574.4919721085001, 790.4621125731466]</t>
         </is>
       </c>
       <c r="V44" t="n">
-        <v>1.124120574402809e-09</v>
+        <v>1.335376254019138e-11</v>
       </c>
       <c r="W44" t="n">
-        <v>1.124120574402809e-09</v>
+        <v>1.335376254019138e-11</v>
       </c>
       <c r="X44" t="n">
-        <v>14.32308308308324</v>
+        <v>8.269789789789886</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.225065065065102</v>
+        <v>-3.58832832832837</v>
       </c>
       <c r="Z44" t="n">
-        <v>25.42110110110138</v>
+        <v>20.12790790790814</v>
       </c>
     </row>
     <row r="45">
@@ -4263,85 +4263,85 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-07-21</t>
+          <t>2022-07-23</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>23.69000000000026</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0001940777153273121</v>
+        <v>0.07615541728966169</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0001940777153273121</v>
+        <v>0.07615541728966169</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>242.1897710219845</v>
+        <v>210.6910879085843</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[125.93592915226435, 358.44361289170456]</t>
+          <t>[-19.757871732242904, 441.1400475494116]</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0.0002934359338451209</v>
+        <v>0.0710712410815515</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0002934359338451209</v>
+        <v>0.0710712410815515</v>
       </c>
       <c r="P45" t="n">
-        <v>2.974921571867812</v>
+        <v>-1.408842351159387</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[2.3837109423634266, 3.566132201372197]</t>
+          <t>[-2.9308952483940813, 0.11321054607530767]</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>8.698386455563423e-10</v>
+        <v>0.06789075409447887</v>
       </c>
       <c r="S45" t="n">
-        <v>8.698386455563423e-10</v>
+        <v>0.06789075409447887</v>
       </c>
       <c r="T45" t="n">
-        <v>532.0040972659172</v>
+        <v>720.2807722066493</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>[462.31654842218757, 601.6916461096467]</t>
+          <t>[592.7756110771222, 847.7859333361764]</t>
         </is>
       </c>
       <c r="V45" t="n">
-        <v>3.583799923490005e-13</v>
+        <v>1.076232436503233e-10</v>
       </c>
       <c r="W45" t="n">
-        <v>3.583799923490005e-13</v>
+        <v>1.076232436503233e-10</v>
       </c>
       <c r="X45" t="n">
-        <v>12.47341341341355</v>
+        <v>5.323083083083144</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.24432432432444</v>
+        <v>-0.4277477477477518</v>
       </c>
       <c r="Z45" t="n">
-        <v>14.70250250250267</v>
+        <v>11.07391391391404</v>
       </c>
     </row>
     <row r="46">
@@ -4349,85 +4349,85 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-07-24</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>23.69000000000026</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0002004811460750711</v>
+        <v>0.416560161072853</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0002004811460750711</v>
+        <v>0.416560161072853</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>241.9557424040797</v>
+        <v>127.9243113101016</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>[121.30198047734922, 362.6095043308102]</t>
+          <t>[-135.82031611745208, 391.66893873765537]</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.0004323149417793104</v>
+        <v>0.3246112828736694</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0004323149417793104</v>
+        <v>0.3246112828736694</v>
       </c>
       <c r="P46" t="n">
-        <v>-2.842842601446619</v>
+        <v>-1.962316131972003</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>[-3.408895331823158, -2.2767898710700805]</t>
+          <t>[-5.094474573388854, 1.1698423094448485]</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>9.001410727904613e-10</v>
+        <v>0.2067186180431702</v>
       </c>
       <c r="S46" t="n">
-        <v>9.001410727904613e-10</v>
+        <v>0.2067186180431702</v>
       </c>
       <c r="T46" t="n">
-        <v>556.6094062346704</v>
+        <v>715.2728058678493</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>[486.76648102531965, 626.4523314440211]</t>
+          <t>[576.5234607075736, 854.0221510281251]</t>
         </is>
       </c>
       <c r="V46" t="n">
-        <v>1.549871342376719e-13</v>
+        <v>5.650457879369242e-10</v>
       </c>
       <c r="W46" t="n">
-        <v>1.549871342376719e-13</v>
+        <v>5.650457879369242e-10</v>
       </c>
       <c r="X46" t="n">
-        <v>10.71859859859872</v>
+        <v>7.414294294294379</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.584364364364461</v>
+        <v>-4.420060060060111</v>
       </c>
       <c r="Z46" t="n">
-        <v>12.85283283283297</v>
+        <v>19.24864864864887</v>
       </c>
     </row>
     <row r="47">
@@ -4435,85 +4435,85 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2022-07-23</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>23.69000000000026</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0007880391568857448</v>
+        <v>0.3761883009721837</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0007880391568857448</v>
+        <v>0.3761883009721837</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>252.7261702625434</v>
+        <v>140.5009643743273</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[109.97009330694851, 395.48224721813824]</t>
+          <t>[-116.5689478734729, 397.57087662212746]</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0.00138737105653286</v>
+        <v>0.268506489505097</v>
       </c>
       <c r="O47" t="n">
-        <v>0.00138737105653286</v>
+        <v>0.268506489505097</v>
       </c>
       <c r="P47" t="n">
-        <v>-2.868000500574466</v>
+        <v>-1.559789745926464</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>[-3.5472637770263127, -2.188737224122619]</t>
+          <t>[-4.610185015177815, 1.490605523324887]</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>1.793876713840348e-08</v>
+        <v>0.2996808419229315</v>
       </c>
       <c r="S47" t="n">
-        <v>1.793876713840348e-08</v>
+        <v>0.2996808419229315</v>
       </c>
       <c r="T47" t="n">
-        <v>546.5816989380212</v>
+        <v>742.1743942351781</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>[464.0375421474696, 629.1258557285728]</t>
+          <t>[598.613848825853, 885.7349396445031]</t>
         </is>
       </c>
       <c r="V47" t="n">
-        <v>5.53068701947268e-12</v>
+        <v>5.371083577898617e-10</v>
       </c>
       <c r="W47" t="n">
-        <v>5.53068701947268e-12</v>
+        <v>5.371083577898617e-10</v>
       </c>
       <c r="X47" t="n">
-        <v>10.81345345345357</v>
+        <v>5.893413413413484</v>
       </c>
       <c r="Y47" t="n">
-        <v>8.252372372372466</v>
+        <v>-5.632012012012076</v>
       </c>
       <c r="Z47" t="n">
-        <v>13.37453453453468</v>
+        <v>17.41883883883904</v>
       </c>
     </row>
     <row r="48">
@@ -4521,85 +4521,85 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-07-24</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>23.69000000000026</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0001055936898276544</v>
+        <v>0.2860201787876311</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0001055936898276544</v>
+        <v>0.2860201787876311</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>290.3488204617821</v>
+        <v>165.1282205970396</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[152.35531120443665, 428.3423297191276]</t>
+          <t>[-93.73463494006302, 423.99107613414213]</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>0.0002646190270518822</v>
+        <v>0.1988932145215534</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0002646190270518822</v>
+        <v>0.1988932145215534</v>
       </c>
       <c r="P48" t="n">
-        <v>-2.830263651882697</v>
+        <v>-1.735895039821387</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>[-3.3711584831313894, -2.289368820634004]</t>
+          <t>[-4.874342956020199, 1.4025528763774249]</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.325066971233582e-10</v>
+        <v>0.2629726003101354</v>
       </c>
       <c r="S48" t="n">
-        <v>4.325066971233582e-10</v>
+        <v>0.2629726003101354</v>
       </c>
       <c r="T48" t="n">
-        <v>549.3089212200309</v>
+        <v>766.4087256181793</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>[469.9603565994271, 628.6574858406348]</t>
+          <t>[618.2674280424185, 914.5500231939402]</t>
         </is>
       </c>
       <c r="V48" t="n">
-        <v>2.368327756130384e-12</v>
+        <v>5.302100980486557e-10</v>
       </c>
       <c r="W48" t="n">
-        <v>2.368327756130384e-12</v>
+        <v>5.302100980486557e-10</v>
       </c>
       <c r="X48" t="n">
-        <v>10.67117117117129</v>
+        <v>6.558798798798875</v>
       </c>
       <c r="Y48" t="n">
-        <v>8.631791791791889</v>
+        <v>-5.299319319319379</v>
       </c>
       <c r="Z48" t="n">
-        <v>12.71055055055069</v>
+        <v>18.41691691691713</v>
       </c>
     </row>
     <row r="49">
@@ -4607,85 +4607,85 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>23.69000000000026</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02308811742176564</v>
+        <v>0.3605749259369688</v>
       </c>
       <c r="I49" t="n">
-        <v>0.02308811742176564</v>
+        <v>0.3605749259369688</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>269.1877340872784</v>
+        <v>193.474529634459</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>[44.22068824066275, 494.154779933894]</t>
+          <t>[-152.24616845953767, 539.1952277284556]</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0.02130542772320587</v>
+        <v>0.2575549861708513</v>
       </c>
       <c r="O49" t="n">
-        <v>0.02130542772320587</v>
+        <v>0.2575549861708513</v>
       </c>
       <c r="P49" t="n">
-        <v>2.92460577361212</v>
+        <v>-1.333368653775848</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>[1.7547634641672727, 4.094448083056967]</t>
+          <t>[-4.465527095192699, 1.7987897876410033]</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.751782293837103e-05</v>
+        <v>0.3860212533272587</v>
       </c>
       <c r="S49" t="n">
-        <v>3.751782293837103e-05</v>
+        <v>0.3860212533272587</v>
       </c>
       <c r="T49" t="n">
-        <v>640.1082062660635</v>
+        <v>813.8655659443057</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>[508.0471031999084, 772.1693093322185]</t>
+          <t>[620.5180169440074, 1007.213114944604]</t>
         </is>
       </c>
       <c r="V49" t="n">
-        <v>1.684749895147775e-09</v>
+        <v>1.887713008130731e-08</v>
       </c>
       <c r="W49" t="n">
-        <v>1.684749895147775e-09</v>
+        <v>1.887713008130731e-08</v>
       </c>
       <c r="X49" t="n">
-        <v>12.66312312312326</v>
+        <v>5.037917917917976</v>
       </c>
       <c r="Y49" t="n">
-        <v>8.252372372372463</v>
+        <v>-6.796436436436514</v>
       </c>
       <c r="Z49" t="n">
-        <v>17.07387387387406</v>
+        <v>16.87227227227247</v>
       </c>
     </row>
     <row r="50">
@@ -4697,81 +4697,81 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-07-28</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>23.69000000000026</v>
+        <v>23.74000000000027</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0008132174389198221</v>
+        <v>0.02441482545048279</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0008132174389198221</v>
+        <v>0.02441482545048279</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>195.9485497526823</v>
+        <v>230.0401511757748</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[70.65906971614004, 321.23802978922464]</t>
+          <t>[25.329278262943603, 434.7510240886061]</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0.003809638035502161</v>
+        <v>0.02942839378827267</v>
       </c>
       <c r="O50" t="n">
-        <v>0.003809638035502161</v>
+        <v>0.02942839378827267</v>
       </c>
       <c r="P50" t="n">
-        <v>-2.364842518017542</v>
+        <v>2.55981623625835</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>[-2.943474197958005, -1.7862108380770794]</t>
+          <t>[1.3019212798660407, 3.81771119265066]</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.078326415995036e-08</v>
+        <v>0.0003730786002464903</v>
       </c>
       <c r="S50" t="n">
-        <v>3.078326415995036e-08</v>
+        <v>0.0003730786002464903</v>
       </c>
       <c r="T50" t="n">
-        <v>573.5957070961849</v>
+        <v>770.7672615151992</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>[509.69468352360525, 637.4967306687646]</t>
+          <t>[657.3223454409788, 884.2121775894195]</t>
         </is>
       </c>
       <c r="V50" t="n">
-        <v>1.48769885299771e-14</v>
+        <v>3.389066804970753e-12</v>
       </c>
       <c r="W50" t="n">
-        <v>1.48769885299771e-14</v>
+        <v>3.389066804970753e-12</v>
       </c>
       <c r="X50" t="n">
-        <v>8.916356356356458</v>
+        <v>14.06814814814831</v>
       </c>
       <c r="Y50" t="n">
-        <v>6.73469469469477</v>
+        <v>9.315395395395502</v>
       </c>
       <c r="Z50" t="n">
-        <v>11.09801801801814</v>
+        <v>18.82090090090112</v>
       </c>
     </row>
     <row r="51">
@@ -4783,81 +4783,81 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>23.69000000000026</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0.006411961216681528</v>
+        <v>3.601159054633651e-05</v>
       </c>
       <c r="I51" t="n">
-        <v>0.006411961216681528</v>
+        <v>3.601159054633651e-05</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>222.8779162050057</v>
+        <v>205.6516321785415</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[60.89712326322194, 384.85870914678947]</t>
+          <t>[103.72121947642631, 307.5820448806568]</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0.009344558852993901</v>
+        <v>0.0004068688499185846</v>
       </c>
       <c r="O51" t="n">
-        <v>0.009344558852993901</v>
+        <v>0.0004068688499185846</v>
       </c>
       <c r="P51" t="n">
-        <v>-2.930895248394081</v>
+        <v>2.421447791055196</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>[-3.8240006674326215, -2.037789829355541]</t>
+          <t>[1.9686056067539646, 2.874289975356427]</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>9.52372866569462e-07</v>
+        <v>2.92602164719824e-10</v>
       </c>
       <c r="S51" t="n">
-        <v>9.52372866569462e-07</v>
+        <v>2.92602164719824e-10</v>
       </c>
       <c r="T51" t="n">
-        <v>611.1160495614595</v>
+        <v>404.253622097646</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>[519.5380938860633, 702.6940052368557]</t>
+          <t>[352.9090838134798, 455.59816038181225]</t>
         </is>
       </c>
       <c r="V51" t="n">
-        <v>4.773292872073398e-12</v>
+        <v>1.962874307537277e-13</v>
       </c>
       <c r="W51" t="n">
-        <v>4.773292872073398e-12</v>
+        <v>1.962874307537277e-13</v>
       </c>
       <c r="X51" t="n">
-        <v>11.05059059059071</v>
+        <v>14.836796796797</v>
       </c>
       <c r="Y51" t="n">
-        <v>7.683243243243328</v>
+        <v>13.09697697697716</v>
       </c>
       <c r="Z51" t="n">
-        <v>14.4179379379381</v>
+        <v>16.57661661661685</v>
       </c>
     </row>
     <row r="52">
@@ -4869,81 +4869,81 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-07-28</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>23.69000000000026</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0002251324815248923</v>
+        <v>1.109502545393326e-08</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0002251324815248923</v>
+        <v>1.109502545393326e-08</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>233.1277537688925</v>
+        <v>405.3218988164124</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>[113.03788209921225, 353.21762543857267]</t>
+          <t>[299.75610564035117, 510.8876919924737]</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.0005945844263810507</v>
+        <v>8.491534275734125e-08</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0005945844263810507</v>
+        <v>8.491534275734125e-08</v>
       </c>
       <c r="P52" t="n">
-        <v>-2.817684702318773</v>
+        <v>1.880552959806502</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>[-3.421474281387082, -2.2138951232504644]</t>
+          <t>[1.5912371198362711, 2.169868799776734]</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.265256953710605e-09</v>
+        <v>7.861933326580584e-12</v>
       </c>
       <c r="S52" t="n">
-        <v>3.265256953710605e-09</v>
+        <v>7.861933326580584e-12</v>
       </c>
       <c r="T52" t="n">
-        <v>572.4247997151574</v>
+        <v>320.8955177305994</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>[504.4660944002276, 640.3835050300872]</t>
+          <t>[260.9460578739767, 380.844977587222]</t>
         </is>
       </c>
       <c r="V52" t="n">
-        <v>5.218048215738236e-14</v>
+        <v>2.871685111927036e-10</v>
       </c>
       <c r="W52" t="n">
-        <v>5.218048215738236e-14</v>
+        <v>2.871685111927036e-10</v>
       </c>
       <c r="X52" t="n">
-        <v>10.62374374374386</v>
+        <v>16.91491491491515</v>
       </c>
       <c r="Y52" t="n">
-        <v>8.34722722722732</v>
+        <v>15.80336336336358</v>
       </c>
       <c r="Z52" t="n">
-        <v>12.9002602602604</v>
+        <v>18.02646646646672</v>
       </c>
     </row>
     <row r="53">
@@ -4955,81 +4955,81 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>23.69000000000026</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.006131720144236574</v>
+        <v>1.238057252272995e-07</v>
       </c>
       <c r="I53" t="n">
-        <v>0.006131720144236574</v>
+        <v>1.238057252272995e-07</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>255.2835029381512</v>
+        <v>483.8151294959591</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[54.844699115064486, 455.722306761238]</t>
+          <t>[342.59261430969184, 625.0376446822264]</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0.01502186679491624</v>
+        <v>5.010756263246208e-07</v>
       </c>
       <c r="O53" t="n">
-        <v>0.01502186679491624</v>
+        <v>5.010756263246208e-07</v>
       </c>
       <c r="P53" t="n">
-        <v>-2.452895164965003</v>
+        <v>1.779921363295118</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>[-3.144737390980773, -1.7610529389492333]</t>
+          <t>[1.4528686746331179, 2.1069740519571187]</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.969283114939714e-07</v>
+        <v>2.125817299969412e-10</v>
       </c>
       <c r="S53" t="n">
-        <v>2.969283114939714e-07</v>
+        <v>2.125817299969412e-10</v>
       </c>
       <c r="T53" t="n">
-        <v>624.7050412859448</v>
+        <v>422.0521082446327</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>[520.9356399239939, 728.4744426478958]</t>
+          <t>[339.4154917696205, 504.688724719645]</t>
         </is>
       </c>
       <c r="V53" t="n">
-        <v>3.319344799024293e-11</v>
+        <v>6.674347741153497e-10</v>
       </c>
       <c r="W53" t="n">
-        <v>3.319344799024293e-11</v>
+        <v>6.674347741153497e-10</v>
       </c>
       <c r="X53" t="n">
-        <v>9.248348348348451</v>
+        <v>17.30154154154178</v>
       </c>
       <c r="Y53" t="n">
-        <v>6.639839839839913</v>
+        <v>16.04500500500523</v>
       </c>
       <c r="Z53" t="n">
-        <v>11.85685685685699</v>
+        <v>18.55807807807833</v>
       </c>
     </row>
     <row r="54">
@@ -5041,81 +5041,81 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>23.69000000000026</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0005950131461187613</v>
+        <v>3.422715418865963e-07</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0005950131461187613</v>
+        <v>3.422715418865963e-07</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>319.7798332044792</v>
+        <v>514.6805340363625</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[128.82439084873937, 510.7352755602191]</t>
+          <t>[369.98002629985206, 659.3810417728729]</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>0.002221714254301732</v>
+        <v>2.825820655250055e-07</v>
       </c>
       <c r="O54" t="n">
-        <v>0.002221714254301732</v>
+        <v>2.825820655250055e-07</v>
       </c>
       <c r="P54" t="n">
-        <v>-2.100684577175157</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>[-2.7170531058073886, -1.484316048542925]</t>
+          <t>[1.3145002294299637, 1.9686056067539646]</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>5.419230302283751e-07</v>
+        <v>9.097134157087794e-10</v>
       </c>
       <c r="S54" t="n">
-        <v>5.419230302283751e-07</v>
+        <v>9.097134157087794e-10</v>
       </c>
       <c r="T54" t="n">
-        <v>562.728776321844</v>
+        <v>507.2418847659965</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>[461.8224130220822, 663.6351396216057]</t>
+          <t>[413.6268050391228, 600.8569644928701]</t>
         </is>
       </c>
       <c r="V54" t="n">
-        <v>1.362563395446159e-10</v>
+        <v>2.30291341551947e-10</v>
       </c>
       <c r="W54" t="n">
-        <v>1.362563395446159e-10</v>
+        <v>2.30291341551947e-10</v>
       </c>
       <c r="X54" t="n">
-        <v>7.920380380380466</v>
+        <v>17.8331531531534</v>
       </c>
       <c r="Y54" t="n">
-        <v>5.596436436436496</v>
+        <v>16.57661661661685</v>
       </c>
       <c r="Z54" t="n">
-        <v>10.24432432432444</v>
+        <v>19.08968968968995</v>
       </c>
     </row>
     <row r="55">
@@ -5127,81 +5127,81 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2022-07-31</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>23.69000000000026</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>2.006941709753463e-05</v>
+        <v>4.983724877183349e-05</v>
       </c>
       <c r="I55" t="n">
-        <v>2.006941709753463e-05</v>
+        <v>4.983724877183349e-05</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>308.1759127995036</v>
+        <v>482.5275625729927</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[171.55307161226813, 444.79875398673914]</t>
+          <t>[281.8502254424136, 683.2048997035718]</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0.0001247317103434398</v>
+        <v>5.987819902175673e-05</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0001247317103434398</v>
+        <v>5.987819902175673e-05</v>
       </c>
       <c r="P55" t="n">
-        <v>-2.100684577175157</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>[-2.578684660604235, -1.6226844937460787]</t>
+          <t>[1.1383949355350396, 2.1447109006488887]</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>9.143138024469977e-09</v>
+        <v>1.038264552999379e-06</v>
       </c>
       <c r="S55" t="n">
-        <v>9.143138024469977e-09</v>
+        <v>1.038264552999379e-06</v>
       </c>
       <c r="T55" t="n">
-        <v>611.4675102107785</v>
+        <v>446.7391833953207</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>[538.025868637347, 684.90915178421]</t>
+          <t>[322.8007650378699, 570.6776017527714]</t>
         </is>
       </c>
       <c r="V55" t="n">
-        <v>6.572520305780927e-14</v>
+        <v>2.299806138861271e-07</v>
       </c>
       <c r="W55" t="n">
-        <v>6.572520305780927e-14</v>
+        <v>2.299806138861271e-07</v>
       </c>
       <c r="X55" t="n">
-        <v>7.920380380380466</v>
+        <v>17.8331531531534</v>
       </c>
       <c r="Y55" t="n">
-        <v>6.118138138138202</v>
+        <v>15.90002002002024</v>
       </c>
       <c r="Z55" t="n">
-        <v>9.72262262262273</v>
+        <v>19.76628628628656</v>
       </c>
     </row>
     <row r="56">
@@ -5213,81 +5213,81 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-03</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>23.69000000000026</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>5.836975267237143e-05</v>
+        <v>1.011724188026975e-05</v>
       </c>
       <c r="I56" t="n">
-        <v>5.836975267237143e-05</v>
+        <v>1.011724188026975e-05</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>286.2321062854203</v>
+        <v>541.4623341199436</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>[164.61027363058088, 407.8539389402597]</t>
+          <t>[339.4367016484233, 743.487966591464]</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>7.69613831423932e-05</v>
+        <v>1.567659418988399e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>7.69613831423932e-05</v>
+        <v>1.567659418988399e-05</v>
       </c>
       <c r="P56" t="n">
-        <v>-1.710737140693541</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>[-2.226474072814387, -1.1950002085726954]</t>
+          <t>[1.2893423303021185, 2.220184598032426]</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>8.126441342071189e-07</v>
+        <v>1.135147580377804e-07</v>
       </c>
       <c r="S56" t="n">
-        <v>8.126441342071189e-07</v>
+        <v>1.135147580377804e-07</v>
       </c>
       <c r="T56" t="n">
-        <v>617.7444569945937</v>
+        <v>524.2763271181462</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>[543.9788892617066, 691.5100247274809]</t>
+          <t>[400.97603114759477, 647.5766230886977]</t>
         </is>
       </c>
       <c r="V56" t="n">
-        <v>5.839773109528323e-14</v>
+        <v>1.594823895167963e-08</v>
       </c>
       <c r="W56" t="n">
-        <v>5.839773109528323e-14</v>
+        <v>1.594823895167963e-08</v>
       </c>
       <c r="X56" t="n">
-        <v>6.450130130130201</v>
+        <v>17.39819819819844</v>
       </c>
       <c r="Y56" t="n">
-        <v>4.505605605605659</v>
+        <v>15.61005005005027</v>
       </c>
       <c r="Z56" t="n">
-        <v>8.394654654654744</v>
+        <v>19.18634634634661</v>
       </c>
     </row>
     <row r="57">
@@ -5295,85 +5295,85 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>23.69000000000026</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.09438347647824286</v>
+        <v>4.55201170090902e-08</v>
       </c>
       <c r="I57" t="n">
-        <v>0.09438347647824286</v>
+        <v>4.55201170090902e-08</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>193.4626928007417</v>
+        <v>647.1314156079326</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>[-34.47350082993455, 421.3988864314179]</t>
+          <t>[485.89606991513733, 808.3667613007278]</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0.09208823043862546</v>
+        <v>4.143855258931239e-08</v>
       </c>
       <c r="O57" t="n">
-        <v>0.09208823043862546</v>
+        <v>4.143855258931239e-08</v>
       </c>
       <c r="P57" t="n">
-        <v>-2.918316298830158</v>
+        <v>1.553500271144501</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>[-4.566158691704084, -1.2704739059562322]</t>
+          <t>[1.2767633807381937, 1.8302371615508086]</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>0.00138288010900034</v>
+        <v>1.207667299496507e-10</v>
       </c>
       <c r="S57" t="n">
-        <v>0.00138288010900034</v>
+        <v>1.207667299496507e-10</v>
       </c>
       <c r="T57" t="n">
-        <v>677.9614308440158</v>
+        <v>521.4331465985501</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>[553.6526719402757, 802.2701897477559]</t>
+          <t>[417.4107267485882, 625.4555664485121]</t>
         </is>
       </c>
       <c r="V57" t="n">
-        <v>2.045514868598275e-10</v>
+        <v>9.309812920577087e-10</v>
       </c>
       <c r="W57" t="n">
-        <v>2.045514868598275e-10</v>
+        <v>9.309812920577087e-10</v>
       </c>
       <c r="X57" t="n">
-        <v>11.00316316316329</v>
+        <v>18.17145145145171</v>
       </c>
       <c r="Y57" t="n">
-        <v>4.790170170170224</v>
+        <v>17.10822822822847</v>
       </c>
       <c r="Z57" t="n">
-        <v>17.21615615615635</v>
+        <v>19.23467467467495</v>
       </c>
     </row>
     <row r="58">
@@ -5385,81 +5385,81 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2022-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>23.69000000000026</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1.597288519339379e-06</v>
+        <v>1.347743228130582e-08</v>
       </c>
       <c r="I58" t="n">
-        <v>1.597288519339379e-06</v>
+        <v>1.347743228130582e-08</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>402.5292465905638</v>
+        <v>494.0559354789863</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[253.0931631554597, 551.965330025668]</t>
+          <t>[382.34406299277055, 605.7678079652021]</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>1.469315641888791e-05</v>
+        <v>8.212958757525257e-09</v>
       </c>
       <c r="O58" t="n">
-        <v>1.469315641888791e-05</v>
+        <v>8.212958757525257e-09</v>
       </c>
       <c r="P58" t="n">
-        <v>-1.94973718240808</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>[-2.339684618889695, -1.559789745926464]</t>
+          <t>[1.2767633807381937, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>9.738281292470674e-10</v>
+        <v>5.95798965719041e-11</v>
       </c>
       <c r="S58" t="n">
-        <v>9.738281292470674e-10</v>
+        <v>5.95798965719041e-11</v>
       </c>
       <c r="T58" t="n">
-        <v>622.2339364055331</v>
+        <v>514.4663384672918</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>[541.9593196220404, 702.5085531890257]</t>
+          <t>[440.56270270008656, 588.3699742344971]</t>
         </is>
       </c>
       <c r="V58" t="n">
-        <v>2.664535259100376e-13</v>
+        <v>2.129185716626125e-12</v>
       </c>
       <c r="W58" t="n">
-        <v>2.664535259100376e-13</v>
+        <v>2.129185716626125e-12</v>
       </c>
       <c r="X58" t="n">
-        <v>7.35125125125133</v>
+        <v>18.21977977978003</v>
       </c>
       <c r="Y58" t="n">
-        <v>5.881001001001065</v>
+        <v>17.20488488488513</v>
       </c>
       <c r="Z58" t="n">
-        <v>8.821501501501595</v>
+        <v>19.23467467467494</v>
       </c>
     </row>
     <row r="59">
@@ -5471,81 +5471,81 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2022-08-04</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>23.69000000000026</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0007783798728427938</v>
+        <v>6.206604297176455e-08</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0007783798728427938</v>
+        <v>6.206604297176455e-08</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>378.8863268554974</v>
+        <v>457.2694064559705</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>[165.15100539644322, 592.6216483145515]</t>
+          <t>[341.1794454085657, 573.3593675033753]</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.001371341957600691</v>
+        <v>5.625027377220704e-08</v>
       </c>
       <c r="O59" t="n">
-        <v>0.001371341957600691</v>
+        <v>5.625027377220704e-08</v>
       </c>
       <c r="P59" t="n">
-        <v>-1.836526636332772</v>
+        <v>1.591237119836272</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>[-2.5157899127846193, -1.1572633598809254]</t>
+          <t>[1.3145002294299628, 1.8679740102425813]</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.400156135566988e-05</v>
+        <v>7.770450949351471e-11</v>
       </c>
       <c r="S59" t="n">
-        <v>1.400156135566988e-05</v>
+        <v>7.770450949351471e-11</v>
       </c>
       <c r="T59" t="n">
-        <v>719.624247664312</v>
+        <v>406.0038778936952</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>[597.2707832974822, 841.9777120311417]</t>
+          <t>[331.103135049296, 480.90462073809437]</t>
         </is>
       </c>
       <c r="V59" t="n">
-        <v>5.116529422366511e-11</v>
+        <v>2.286155709185778e-10</v>
       </c>
       <c r="W59" t="n">
-        <v>5.116529422366511e-11</v>
+        <v>2.286155709185778e-10</v>
       </c>
       <c r="X59" t="n">
-        <v>6.924404404404484</v>
+        <v>18.02646646646672</v>
       </c>
       <c r="Y59" t="n">
-        <v>4.363323323323375</v>
+        <v>16.96324324324347</v>
       </c>
       <c r="Z59" t="n">
-        <v>9.485485485485594</v>
+        <v>19.08968968968996</v>
       </c>
     </row>
     <row r="60">
@@ -5557,3005 +5557,81 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>23.69000000000026</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0.003937000501692101</v>
+        <v>9.486700204730525e-06</v>
       </c>
       <c r="I60" t="n">
-        <v>0.003937000501692101</v>
+        <v>9.486700204730525e-06</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>288.6660194012339</v>
+        <v>346.7712842605022</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>[102.37562163011944, 474.95641717234844]</t>
+          <t>[201.86496231408836, 491.677606206916]</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0.004084806421621012</v>
+        <v>6.333397817392949e-05</v>
       </c>
       <c r="O60" t="n">
-        <v>0.004084806421621012</v>
+        <v>6.333397817392949e-05</v>
       </c>
       <c r="P60" t="n">
-        <v>-1.408842351159387</v>
+        <v>1.956026657190041</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>[-2.239053022378311, -0.5786316799404627]</t>
+          <t>[1.503184472888809, 2.4088688414912722]</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>0.001991104065691252</v>
+        <v>1.224520285170172e-08</v>
       </c>
       <c r="S60" t="n">
-        <v>0.001991104065691252</v>
+        <v>1.224520285170172e-08</v>
       </c>
       <c r="T60" t="n">
-        <v>592.1848765280954</v>
+        <v>691.6103939371246</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>[481.74675465743167, 702.6229983987591]</t>
+          <t>[612.971716473452, 770.2490714007972]</t>
         </is>
       </c>
       <c r="V60" t="n">
-        <v>2.782198915696199e-10</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="W60" t="n">
-        <v>2.782198915696199e-10</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="X60" t="n">
-        <v>5.311871871871933</v>
+        <v>16.62494494494518</v>
       </c>
       <c r="Y60" t="n">
-        <v>2.181661661661689</v>
+        <v>14.88512512512533</v>
       </c>
       <c r="Z60" t="n">
-        <v>8.442082082082177</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2022-08-06</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.0007176572742648712</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.0007176572742648712</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>376.4181564493252</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>[156.79221510079742, 596.0440977978529]</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>0.001832107638657821</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0.001832107638657821</v>
-      </c>
-      <c r="P61" t="n">
-        <v>-1.144684410317002</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>[-1.7862108380770794, -0.5031579825569237]</t>
-        </is>
-      </c>
-      <c r="R61" t="n">
-        <v>0.001294821700877691</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0.001294821700877691</v>
-      </c>
-      <c r="T61" t="n">
-        <v>701.2362217394111</v>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>[580.8198006883003, 821.6526427905219]</t>
-        </is>
-      </c>
-      <c r="V61" t="n">
-        <v>6.148170861308699e-11</v>
-      </c>
-      <c r="W61" t="n">
-        <v>6.148170861308699e-11</v>
-      </c>
-      <c r="X61" t="n">
-        <v>4.301321321321367</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>1.890690690690711</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>6.711951951952024</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2022-08-07</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.0008178169407306868</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.0008178169407306868</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>413.1261414171618</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>[172.9214377782588, 653.3308450560647]</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>0.001778951273886387</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0.001778951273886387</v>
-      </c>
-      <c r="P62" t="n">
-        <v>-1.245316006828387</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>[-1.9120003337163105, -0.5786316799404627]</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>0.0008558775673501717</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0.0008558775673501717</v>
-      </c>
-      <c r="T62" t="n">
-        <v>672.056967860216</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>[538.3556943338351, 805.7582413865969]</t>
-        </is>
-      </c>
-      <c r="V62" t="n">
-        <v>8.86458240145771e-10</v>
-      </c>
-      <c r="W62" t="n">
-        <v>8.86458240145771e-10</v>
-      </c>
-      <c r="X62" t="n">
-        <v>4.679459459459508</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>2.174294294294317</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>7.1846246246247</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2022-08-08</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.000167541396451476</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.000167541396451476</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>517.7965645126744</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>[254.57699858488854, 781.0161304404603]</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>0.0005227806774910082</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0.0005227806774910082</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-1.182421259008771</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>[-1.7610529389492324, -0.6037895790683088]</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>0.0003576730609939904</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0.0003576730609939904</v>
-      </c>
-      <c r="T63" t="n">
-        <v>745.5856106274821</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>[600.3966589999382, 890.774562255026]</t>
-        </is>
-      </c>
-      <c r="V63" t="n">
-        <v>6.05442807000145e-10</v>
-      </c>
-      <c r="W63" t="n">
-        <v>6.05442807000145e-10</v>
-      </c>
-      <c r="X63" t="n">
-        <v>4.443123123123168</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>2.268828828828853</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>6.617417417417483</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2022-08-09</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.01600713982528779</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.01600713982528779</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>355.0776424829095</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>[82.11919637111941, 628.0360885946995]</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>0.01325426645891614</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0.01325426645891614</v>
-      </c>
-      <c r="P64" t="n">
-        <v>-1.735895039821387</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>[-2.8176847023187737, -0.6541053773240009]</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>0.003126940205138595</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0.003126940205138595</v>
-      </c>
-      <c r="T64" t="n">
-        <v>790.2005937311001</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>[627.6055345530525, 952.7956529091476]</t>
-        </is>
-      </c>
-      <c r="V64" t="n">
-        <v>1.608085220539124e-09</v>
-      </c>
-      <c r="W64" t="n">
-        <v>1.608085220539124e-09</v>
-      </c>
-      <c r="X64" t="n">
-        <v>6.522882882882953</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>2.457897897897925</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>10.58786786786798</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2022-08-10</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.0051777532751629</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.0051777532751629</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>194.6331266551724</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>[57.9737284207805, 331.2925248895642]</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>0.007442575974009991</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0.007442575974009991</v>
-      </c>
-      <c r="P65" t="n">
-        <v>-1.270473905956233</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>[-2.1384214258669267, -0.4025263860455386]</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>0.006167049190056062</v>
-      </c>
-      <c r="S65" t="n">
-        <v>0.006167049190056062</v>
-      </c>
-      <c r="T65" t="n">
-        <v>566.8757335278781</v>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>[490.0708857981676, 643.6805812575885]</t>
-        </is>
-      </c>
-      <c r="V65" t="n">
-        <v>6.898925875020723e-13</v>
-      </c>
-      <c r="W65" t="n">
-        <v>6.898925875020723e-13</v>
-      </c>
-      <c r="X65" t="n">
-        <v>4.773993993994047</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>1.512552552552569</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>8.035435435435526</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2022-08-11</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.00145399072368424</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.00145399072368424</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>281.2059603653391</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>[95.96059528842795, 466.4513254422502]</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
-        <v>0.004755519698281141</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0.004755519698281141</v>
-      </c>
-      <c r="P66" t="n">
-        <v>-0.754736973835386</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>[-1.3585265529036947, -0.1509473947670772]</t>
-        </is>
-      </c>
-      <c r="R66" t="n">
-        <v>0.01673369538432312</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0.01673369538432312</v>
-      </c>
-      <c r="T66" t="n">
-        <v>668.8768547281363</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>[571.9977973938708, 765.7559120624019]</t>
-        </is>
-      </c>
-      <c r="V66" t="n">
-        <v>2.492894779493326e-12</v>
-      </c>
-      <c r="W66" t="n">
-        <v>2.492894779493326e-12</v>
-      </c>
-      <c r="X66" t="n">
-        <v>2.836036036036067</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>0.567207207207213</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>5.10486486486492</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2022-08-12</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.003602339543710031</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.003602339543710031</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>286.014923336191</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>[70.4329555644822, 501.59689110789986]</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>0.01175914331260342</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0.01175914331260342</v>
-      </c>
-      <c r="P67" t="n">
-        <v>-0.8176317216550011</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>[-1.471737098979002, -0.16352634433100022]</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>0.01673369538432334</v>
-      </c>
-      <c r="S67" t="n">
-        <v>0.01673369538432334</v>
-      </c>
-      <c r="T67" t="n">
-        <v>598.5481748075454</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>[489.8983581955178, 707.1979914195729]</t>
-        </is>
-      </c>
-      <c r="V67" t="n">
-        <v>1.703372998207442e-10</v>
-      </c>
-      <c r="W67" t="n">
-        <v>1.703372998207442e-10</v>
-      </c>
-      <c r="X67" t="n">
-        <v>3.072372372372406</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>0.6144744744744828</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>5.53027027027033</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>4.666609711556635e-05</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4.666609711556635e-05</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>323.3981787438226</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>[168.06491964828678, 478.7314378393584]</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v>0.0002953689423148553</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.0002953689423148553</v>
-      </c>
-      <c r="P68" t="n">
-        <v>-0.6037895790683088</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>[-1.0943686120613094, -0.11321054607530812]</t>
-        </is>
-      </c>
-      <c r="R68" t="n">
-        <v>0.01826107904014629</v>
-      </c>
-      <c r="S68" t="n">
-        <v>0.01826107904014629</v>
-      </c>
-      <c r="T68" t="n">
-        <v>637.0379103366588</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>[554.4683948799543, 719.6074257933633]</t>
-        </is>
-      </c>
-      <c r="V68" t="n">
-        <v>2.917666108714911e-13</v>
-      </c>
-      <c r="W68" t="n">
-        <v>2.917666108714911e-13</v>
-      </c>
-      <c r="X68" t="n">
-        <v>2.268828828828855</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>0.4254054054054124</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>4.112252252252299</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2022-08-14</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.0007027011846238995</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.0007027011846238995</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>388.6825230145102</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>[144.10363496590878, 633.2614110631116]</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>0.003371011562683934</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.003371011562683934</v>
-      </c>
-      <c r="P69" t="n">
-        <v>-0.779894872963232</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>[-1.3333686537758478, -0.22642109215061623]</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>0.007994724277016196</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0.007994724277016196</v>
-      </c>
-      <c r="T69" t="n">
-        <v>636.0251568153421</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>[511.29515724751354, 760.7551563831707]</t>
-        </is>
-      </c>
-      <c r="V69" t="n">
-        <v>6.86629419988094e-10</v>
-      </c>
-      <c r="W69" t="n">
-        <v>6.86629419988094e-10</v>
-      </c>
-      <c r="X69" t="n">
-        <v>2.930570570570602</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>0.8508108108108217</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>5.010330330330381</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2022-08-15</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.003954458392925853</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.003954458392925853</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>399.5826570975048</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>[113.2340455721203, 685.9312686228893]</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>0.008526409185250827</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0.008526409185250827</v>
-      </c>
-      <c r="P70" t="n">
-        <v>-0.4654211338651546</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>[-1.2075791581366175, 0.27673689040630833]</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>0.2062917976043728</v>
-      </c>
-      <c r="S70" t="n">
-        <v>0.2062917976043728</v>
-      </c>
-      <c r="T70" t="n">
-        <v>680.4527561808529</v>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>[525.9307950373158, 834.9747173243901]</t>
-        </is>
-      </c>
-      <c r="V70" t="n">
-        <v>8.835893572367581e-09</v>
-      </c>
-      <c r="W70" t="n">
-        <v>8.835893572367581e-09</v>
-      </c>
-      <c r="X70" t="n">
-        <v>1.74888888888891</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>-1.039879879879889</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>4.537657657657709</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2022-08-16</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.002106981754986803</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.002106981754986803</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>316.2467811352071</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>[110.70932627993318, 521.7842359904811]</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>0.004305882065836153</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0.004305882065836153</v>
-      </c>
-      <c r="P71" t="n">
-        <v>-0.4151053356094625</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>[-1.1321054607530785, 0.3018947895341535]</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>0.241990619143579</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0.241990619143579</v>
-      </c>
-      <c r="T71" t="n">
-        <v>604.6874143721204</v>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>[490.68011510795634, 718.6947136362845]</t>
-        </is>
-      </c>
-      <c r="V71" t="n">
-        <v>3.388718194941021e-10</v>
-      </c>
-      <c r="W71" t="n">
-        <v>3.388718194941021e-10</v>
-      </c>
-      <c r="X71" t="n">
-        <v>1.559819819819836</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>-1.134414414414425</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>4.254054054054097</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2022-08-17</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>6.683483937086621e-05</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6.683483937086621e-05</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>488.3722471268822</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>[245.4845992232414, 731.259895030523]</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>0.000421026714244821</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.000421026714244821</v>
-      </c>
-      <c r="P72" t="n">
-        <v>-0.5157369321208467</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>[-1.0063159651138474, -0.02515789912784605]</t>
-        </is>
-      </c>
-      <c r="R72" t="n">
-        <v>0.04026087130972411</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0.04026087130972411</v>
-      </c>
-      <c r="T72" t="n">
-        <v>716.103973543918</v>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>[587.8363249386006, 844.3716221492353]</t>
-        </is>
-      </c>
-      <c r="V72" t="n">
-        <v>1.335389576695434e-10</v>
-      </c>
-      <c r="W72" t="n">
-        <v>1.335389576695434e-10</v>
-      </c>
-      <c r="X72" t="n">
-        <v>1.937957957957977</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>0.09453453453453387</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>3.78138138138142</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>2022-08-18</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1.269286843375017e-05</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1.269286843375017e-05</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>421.2079563686582</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>[256.0631474798146, 586.3527652575019]</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>2.933370022040194e-05</v>
-      </c>
-      <c r="O73" t="n">
-        <v>2.933370022040194e-05</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0.1320789704211931</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>[-0.3333421634439606, 0.5975001042863468]</t>
-        </is>
-      </c>
-      <c r="R73" t="n">
-        <v>0.5613803955507353</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0.5613803955507353</v>
-      </c>
-      <c r="T73" t="n">
-        <v>723.4895706181267</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>[625.3241621286419, 821.6549791076114]</t>
-        </is>
-      </c>
-      <c r="V73" t="n">
-        <v>7.0921046813055e-13</v>
-      </c>
-      <c r="W73" t="n">
-        <v>7.0921046813055e-13</v>
-      </c>
-      <c r="X73" t="n">
-        <v>23.11369369369394</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>21.36480480480504</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>24.86258258258284</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2022-08-19</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>5.034561723737951e-06</v>
-      </c>
-      <c r="I74" t="n">
-        <v>5.034561723737951e-06</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>671.1561674501563</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>[436.6277651738525, 905.6845697264602]</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>6.60066196100928e-06</v>
-      </c>
-      <c r="O74" t="n">
-        <v>6.60066196100928e-06</v>
-      </c>
-      <c r="P74" t="n">
-        <v>-0.1257894956392311</v>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>[-0.5534737808126167, 0.3018947895341544]</t>
-        </is>
-      </c>
-      <c r="R74" t="n">
-        <v>0.5473339210545121</v>
-      </c>
-      <c r="S74" t="n">
-        <v>0.5473339210545121</v>
-      </c>
-      <c r="T74" t="n">
-        <v>840.4906195510649</v>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>[694.134011062085, 986.8472280400448]</t>
-        </is>
-      </c>
-      <c r="V74" t="n">
-        <v>7.952971614599846e-11</v>
-      </c>
-      <c r="W74" t="n">
-        <v>7.952971614599846e-11</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0.4726726726726795</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>-1.134414414414426</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>2.079759759759785</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2022-08-20</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.0001204975172539591</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.0001204975172539591</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>555.3116274088824</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>[311.49871969946673, 799.124535118298]</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>0.0001119008688856837</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.0001119008688856837</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0.09434212172942313</v>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>[-0.47171060864711656, 0.6603948521059628]</t>
-        </is>
-      </c>
-      <c r="R75" t="n">
-        <v>0.7323390392136013</v>
-      </c>
-      <c r="S75" t="n">
-        <v>0.7323390392136013</v>
-      </c>
-      <c r="T75" t="n">
-        <v>765.6194347166276</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>[611.7785301402313, 919.4603392930238]</t>
-        </is>
-      </c>
-      <c r="V75" t="n">
-        <v>1.057864906783834e-09</v>
-      </c>
-      <c r="W75" t="n">
-        <v>1.057864906783834e-09</v>
-      </c>
-      <c r="X75" t="n">
-        <v>23.25549549549574</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>21.12846846846869</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>25.38252252252279</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2022-08-21</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1.66589312546872e-05</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1.66589312546872e-05</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>386.3634813750875</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>[233.59048011525533, 539.1364826349197]</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>3.257263473344096e-05</v>
-      </c>
-      <c r="O76" t="n">
-        <v>3.257263473344096e-05</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0.09434212172942313</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>[-0.37107901213573147, 0.5597632555945777]</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>0.6776420138773211</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0.6776420138773211</v>
-      </c>
-      <c r="T76" t="n">
-        <v>636.8051551359255</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>[544.9602668680934, 728.6500434037575]</t>
-        </is>
-      </c>
-      <c r="V76" t="n">
-        <v>2.299049839393774e-12</v>
-      </c>
-      <c r="W76" t="n">
-        <v>2.299049839393774e-12</v>
-      </c>
-      <c r="X76" t="n">
-        <v>23.25549549549574</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>21.50660660660684</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>25.00438438438465</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2022-08-22</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>6.793184644804384e-07</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6.793184644804384e-07</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>515.3429489363364</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>[351.35976410231456, 679.3261337703582]</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>1.788702952865151e-06</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1.788702952865151e-06</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0.1320789704211931</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>[-0.2327105669325764, 0.4968685077749626]</t>
-        </is>
-      </c>
-      <c r="R77" t="n">
-        <v>0.4598302452597878</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0.4598302452597878</v>
-      </c>
-      <c r="T77" t="n">
-        <v>734.113338150161</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>[635.8224176738198, 832.4042586265022]</t>
-        </is>
-      </c>
-      <c r="V77" t="n">
-        <v>5.482281295599023e-13</v>
-      </c>
-      <c r="W77" t="n">
-        <v>5.482281295599023e-13</v>
-      </c>
-      <c r="X77" t="n">
-        <v>23.11369369369394</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>21.74294294294317</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>24.4844444444447</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2022-08-23</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.02724495263548132</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.02724495263548132</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>211.5868363905101</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>[10.59557026617614, 412.57810251484403]</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>0.04001506010821165</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.04001506010821165</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0.3836579616996545</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>[-0.9056843686024632, 1.6730002920017721]</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>0.5426952565196075</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0.5426952565196075</v>
-      </c>
-      <c r="T78" t="n">
-        <v>677.0805518633247</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>[570.343059896353, 783.8180438302963]</t>
-        </is>
-      </c>
-      <c r="V78" t="n">
-        <v>1.245958891615828e-11</v>
-      </c>
-      <c r="W78" t="n">
-        <v>1.245958891615828e-11</v>
-      </c>
-      <c r="X78" t="n">
-        <v>22.16834834834858</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>17.32345345345364</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>27.01324324324353</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2022-08-24</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.005526661808817113</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.005526661808817113</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>319.1754232853762</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>[86.66082003924487, 551.6900265315074]</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>0.009487722833958712</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.009487722833958712</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0.2830263651882694</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>[-0.6163685286322318, 1.1824212590087706]</t>
-        </is>
-      </c>
-      <c r="R79" t="n">
-        <v>0.5199423359048061</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0.5199423359048061</v>
-      </c>
-      <c r="T79" t="n">
-        <v>703.8459217746476</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>[575.0533070142135, 832.6385365350818]</t>
-        </is>
-      </c>
-      <c r="V79" t="n">
-        <v>1.971236507358753e-10</v>
-      </c>
-      <c r="W79" t="n">
-        <v>1.971236507358753e-10</v>
-      </c>
-      <c r="X79" t="n">
-        <v>22.54648648648673</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>19.16687687687708</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>25.92609609609637</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>23.61000000000025</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.006184239377301393</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.006184239377301393</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>201.2873125976457</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>[49.59183436818262, 352.98279082710883]</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>0.01174789108375363</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.01174789108375363</v>
-      </c>
-      <c r="P80" t="n">
-        <v>1.062921238151501</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>[0.30818426431611545, 1.8176582119868874]</t>
-        </is>
-      </c>
-      <c r="R80" t="n">
-        <v>0.008023380695967752</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0.008023380695967752</v>
-      </c>
-      <c r="T80" t="n">
-        <v>620.855813345786</v>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>[539.3656098696299, 702.3460168219422]</t>
-        </is>
-      </c>
-      <c r="V80" t="n">
-        <v>3.725908470642025e-13</v>
-      </c>
-      <c r="W80" t="n">
-        <v>3.725908470642025e-13</v>
-      </c>
-      <c r="X80" t="n">
-        <v>19.61591591591613</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>16.77987987988006</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>22.45195195195219</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2022-08-26</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.0008992416601397712</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.0008992416601397712</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>167.6591156785965</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>[61.00243462119863, 274.31579673599447]</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>0.003665096527528888</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.003665096527528888</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0.710710650361654</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>[0.1195000208572683, 1.3019212798660398]</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>0.02078000011809156</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0.02078000011809156</v>
-      </c>
-      <c r="T81" t="n">
-        <v>585.7475265414254</v>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>[530.4698973013873, 641.0251557814635]</t>
-        </is>
-      </c>
-      <c r="V81" t="n">
-        <v>6.661338147750939e-16</v>
-      </c>
-      <c r="W81" t="n">
-        <v>6.661338147750939e-16</v>
-      </c>
-      <c r="X81" t="n">
-        <v>20.8861861861864</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>18.67027027027046</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>23.10210210210234</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2022-08-27</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.3093910125702404</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.3093910125702404</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>70.21128195297166</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>[-51.83656426423539, 192.2591281701787]</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>0.2448917974110956</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.2448917974110956</v>
-      </c>
-      <c r="P82" t="n">
-        <v>1.062921238151501</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>[-2.0755266780473107, 4.201369154350312]</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>0.4889723649196207</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0.4889723649196207</v>
-      </c>
-      <c r="T82" t="n">
-        <v>522.8063726756009</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>[457.53578822457825, 588.0769571266235]</t>
-        </is>
-      </c>
-      <c r="V82" t="n">
-        <v>1.403321903126198e-13</v>
-      </c>
-      <c r="W82" t="n">
-        <v>1.403321903126198e-13</v>
-      </c>
-      <c r="X82" t="n">
-        <v>19.56606606606627</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>7.80285285285294</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>31.3292792792796</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2022-08-28</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.003058552255592928</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.003058552255592928</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>261.0681648985213</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>[73.24860254461703, 448.88772725242563]</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>0.008747889369543405</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.008747889369543405</v>
-      </c>
-      <c r="P83" t="n">
-        <v>1.012605439895808</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>[0.3333421634439624, 1.6918687163476545]</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>0.005420958983660018</v>
-      </c>
-      <c r="S83" t="n">
-        <v>0.005420958983660018</v>
-      </c>
-      <c r="T83" t="n">
-        <v>575.404945353325</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>[478.0362343005688, 672.7736564060813]</t>
-        </is>
-      </c>
-      <c r="V83" t="n">
-        <v>4.684919119313236e-11</v>
-      </c>
-      <c r="W83" t="n">
-        <v>4.684919119313236e-11</v>
-      </c>
-      <c r="X83" t="n">
-        <v>19.75465465465486</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>17.20870870870889</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>22.30060060060083</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.001589464215364766</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.001589464215364766</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>282.9412617317508</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>[116.5515812692019, 449.3309421942998]</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>0.001957133291769164</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.001957133291769164</v>
-      </c>
-      <c r="P84" t="n">
-        <v>1.440289725069194</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>[0.698131700797731, 2.182447749340657]</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>0.0005963585390138526</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0.0005963585390138526</v>
-      </c>
-      <c r="T84" t="n">
-        <v>599.9130354187445</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>[502.14048878281676, 697.6855820546722]</t>
-        </is>
-      </c>
-      <c r="V84" t="n">
-        <v>2.326894232851373e-11</v>
-      </c>
-      <c r="W84" t="n">
-        <v>2.326894232851373e-11</v>
-      </c>
-      <c r="X84" t="n">
-        <v>18.15165165165184</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>15.36996996997013</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>20.93333333333355</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2022-08-30</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.1015862299735415</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.1015862299735415</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>138.7044483872636</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>[-37.67378965383614, 315.0826864283633]</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>0.1168635724529956</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.1168635724529956</v>
-      </c>
-      <c r="P85" t="n">
-        <v>2.459184639746965</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>[-0.5157369321208467, 5.434106211614776]</t>
-        </is>
-      </c>
-      <c r="R85" t="n">
-        <v>0.1003060288778213</v>
-      </c>
-      <c r="S85" t="n">
-        <v>0.1003060288778213</v>
-      </c>
-      <c r="T85" t="n">
-        <v>519.3772545519082</v>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>[429.1349280991865, 609.6195810046299]</t>
-        </is>
-      </c>
-      <c r="V85" t="n">
-        <v>7.638112364816152e-11</v>
-      </c>
-      <c r="W85" t="n">
-        <v>7.638112364816152e-11</v>
-      </c>
-      <c r="X85" t="n">
-        <v>14.33273273273288</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>3.182432432432469</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>25.48303303303329</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2022-08-31</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.0001858330016789589</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.0001858330016789589</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>174.2647355138505</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>[93.48844535106642, 255.04102567663463]</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>0.0002030569955986383</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.0002030569955986383</v>
-      </c>
-      <c r="P86" t="n">
-        <v>1.654131867655887</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>[1.1006580868432705, 2.207605648468504]</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>3.640675513727487e-06</v>
-      </c>
-      <c r="S86" t="n">
-        <v>3.640675513727487e-06</v>
-      </c>
-      <c r="T86" t="n">
-        <v>533.6155948874936</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>[484.38763182845753, 582.8435579465296]</t>
-        </is>
-      </c>
-      <c r="V86" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
-      <c r="W86" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
-      <c r="X86" t="n">
-        <v>17.35015015015033</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>15.27567567567583</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>19.42462462462483</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2022-09-01</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.000815448256371476</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.000815448256371476</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>352.1968249992811</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>[149.32561583638233, 555.06803416218]</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>0.001642845650654756</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.001642845650654756</v>
-      </c>
-      <c r="P87" t="n">
-        <v>1.968605606753965</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>[1.3145002294299637, 2.6227109840779654]</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>3.302295729756821e-06</v>
-      </c>
-      <c r="S87" t="n">
-        <v>3.302295729756821e-06</v>
-      </c>
-      <c r="T87" t="n">
-        <v>649.9712991690392</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>[535.9766494951507, 763.9659488429277]</t>
-        </is>
-      </c>
-      <c r="V87" t="n">
-        <v>9.073675144577464e-11</v>
-      </c>
-      <c r="W87" t="n">
-        <v>9.073675144577464e-11</v>
-      </c>
-      <c r="X87" t="n">
-        <v>16.17147147147164</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>13.71981981981996</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>18.62312312312331</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2022-09-02</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1.091179177903356e-05</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1.091179177903356e-05</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>334.9165763779785</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>[192.544611726418, 477.28854102953903]</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>7.736216094889059e-05</v>
-      </c>
-      <c r="O88" t="n">
-        <v>7.736216094889059e-05</v>
-      </c>
-      <c r="P88" t="n">
-        <v>2.106974051957119</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>[1.679289766783734, 2.5346583371305034]</t>
-        </is>
-      </c>
-      <c r="R88" t="n">
-        <v>1.265616722534446e-09</v>
-      </c>
-      <c r="S88" t="n">
-        <v>1.265616722534446e-09</v>
-      </c>
-      <c r="T88" t="n">
-        <v>633.3826873917708</v>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>[557.3085875307931, 709.4567872527484]</t>
-        </is>
-      </c>
-      <c r="V88" t="n">
-        <v>6.572520305780927e-14</v>
-      </c>
-      <c r="W88" t="n">
-        <v>6.572520305780927e-14</v>
-      </c>
-      <c r="X88" t="n">
-        <v>15.65285285285301</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>14.04984984984999</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>17.25585585585603</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2022-09-03</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.0001288479256432717</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.0001288479256432717</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>351.1901591125051</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>[170.2947061492696, 532.0856120757405]</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>0.0005942266814589203</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.0005942266814589203</v>
-      </c>
-      <c r="P89" t="n">
-        <v>2.069237203265349</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>[1.515763422452732, 2.6227109840779654]</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>1.297305791680969e-07</v>
-      </c>
-      <c r="S89" t="n">
-        <v>1.297305791680969e-07</v>
-      </c>
-      <c r="T89" t="n">
-        <v>668.2591011539917</v>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>[571.7844408491749, 764.7337614588084]</t>
-        </is>
-      </c>
-      <c r="V89" t="n">
-        <v>2.34212649274923e-12</v>
-      </c>
-      <c r="W89" t="n">
-        <v>2.34212649274923e-12</v>
-      </c>
-      <c r="X89" t="n">
-        <v>15.79429429429446</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>13.71981981981996</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>17.86876876876896</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2022-09-04</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1.29532676789168e-05</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1.29532676789168e-05</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>354.2839940032468</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>[192.4121098218809, 516.1558781846127]</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>0.0001738453448989485</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0.0001738453448989485</v>
-      </c>
-      <c r="P90" t="n">
-        <v>2.345974093671657</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>[1.9182898084982711, 2.773658378845042]</t>
-        </is>
-      </c>
-      <c r="R90" t="n">
-        <v>1.842384023120758e-10</v>
-      </c>
-      <c r="S90" t="n">
-        <v>1.842384023120758e-10</v>
-      </c>
-      <c r="T90" t="n">
-        <v>653.5718993351302</v>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>[571.7083055993513, 735.435493070909]</t>
-        </is>
-      </c>
-      <c r="V90" t="n">
-        <v>1.494360191145461e-13</v>
-      </c>
-      <c r="W90" t="n">
-        <v>1.494360191145461e-13</v>
-      </c>
-      <c r="X90" t="n">
-        <v>14.75705705705721</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>13.15405405405419</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>16.36006006006023</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2022-09-05</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2.93205567982735e-05</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2.93205567982735e-05</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>338.0274185491334</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>[178.48268067657327, 497.57215642169353]</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>0.0002460677820765866</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.0002460677820765866</v>
-      </c>
-      <c r="P91" t="n">
-        <v>2.52207938756658</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>[2.0566582537014257, 2.987500521431735]</t>
-        </is>
-      </c>
-      <c r="R91" t="n">
-        <v>2.298745638285027e-10</v>
-      </c>
-      <c r="S91" t="n">
-        <v>2.298745638285027e-10</v>
-      </c>
-      <c r="T91" t="n">
-        <v>621.8301879869246</v>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>[538.5732416255821, 705.087134348267]</t>
-        </is>
-      </c>
-      <c r="V91" t="n">
-        <v>5.482281295599023e-13</v>
-      </c>
-      <c r="W91" t="n">
-        <v>5.482281295599023e-13</v>
-      </c>
-      <c r="X91" t="n">
-        <v>14.09699699699714</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>12.35255255255268</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>15.84144144144161</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2022-09-06</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.0008273713881271627</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.0008273713881271627</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>278.6467440258812</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>[101.04499614382053, 456.2484919079418]</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>0.003718943612747605</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.003718943612747605</v>
-      </c>
-      <c r="P92" t="n">
-        <v>2.270500396288118</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>[1.6792897667837323, 2.861711025792504]</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>8.459493239243443e-08</v>
-      </c>
-      <c r="S92" t="n">
-        <v>8.459493239243443e-08</v>
-      </c>
-      <c r="T92" t="n">
-        <v>589.5200679938268</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>[498.7906151138843, 680.2495208737694]</t>
-        </is>
-      </c>
-      <c r="V92" t="n">
-        <v>7.918110611626616e-12</v>
-      </c>
-      <c r="W92" t="n">
-        <v>7.918110611626616e-12</v>
-      </c>
-      <c r="X92" t="n">
-        <v>15.0399399399401</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>12.82402402402416</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>17.25585585585604</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2022-09-07</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1.147753553087938e-06</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1.147753553087938e-06</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>421.4789904608714</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>[258.5634258849783, 584.3945550367645]</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>2.456462627575817e-05</v>
-      </c>
-      <c r="O93" t="n">
-        <v>2.456462627575817e-05</v>
-      </c>
-      <c r="P93" t="n">
-        <v>2.35855304323558</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>[1.9937635058818106, 2.7233425805893496]</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>8.694378550444526e-12</v>
-      </c>
-      <c r="S93" t="n">
-        <v>8.694378550444526e-12</v>
-      </c>
-      <c r="T93" t="n">
-        <v>614.7182124537375</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>[532.1890018811241, 697.2474230263508]</t>
-        </is>
-      </c>
-      <c r="V93" t="n">
-        <v>5.779821066198565e-13</v>
-      </c>
-      <c r="W93" t="n">
-        <v>5.779821066198565e-13</v>
-      </c>
-      <c r="X93" t="n">
-        <v>14.70990990991006</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>13.34264264264278</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>16.07717717717734</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2022-09-08</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>23.55000000000024</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.001332034894247824</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.001332034894247824</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>165.4216627565915</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>[49.453503462313165, 281.38982205086984]</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>0.008750656130301016</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.008750656130301016</v>
-      </c>
-      <c r="P94" t="n">
-        <v>2.912026824048196</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>[1.9434477076261172, 3.8806059404702755]</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>2.018841814677153e-05</v>
-      </c>
-      <c r="S94" t="n">
-        <v>2.018841814677153e-05</v>
-      </c>
-      <c r="T94" t="n">
-        <v>455.0555223990886</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>[381.0400079109407, 529.0710368872365]</t>
-        </is>
-      </c>
-      <c r="V94" t="n">
-        <v>6.128722418452526e-09</v>
-      </c>
-      <c r="W94" t="n">
-        <v>6.128722418452526e-09</v>
-      </c>
-      <c r="X94" t="n">
-        <v>12.63543543543557</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>9.005105105105196</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>16.26576576576594</v>
+        <v>18.36476476476502</v>
       </c>
     </row>
   </sheetData>
